--- a/INTLINE/data/566/PHSA/Gross Value Added in Agriculture Forestry and Fishing At Constant Prices Q_historical.xlsx
+++ b/INTLINE/data/566/PHSA/Gross Value Added in Agriculture Forestry and Fishing At Constant Prices Q_historical.xlsx
@@ -1,585 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Gross Value Added in Agricultu" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gross Value Added in Agricultu" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="180">
-  <si>
-    <t>1981-Q1</t>
-  </si>
-  <si>
-    <t>1981-Q2</t>
-  </si>
-  <si>
-    <t>1981-Q3</t>
-  </si>
-  <si>
-    <t>1981-Q4</t>
-  </si>
-  <si>
-    <t>1982-Q1</t>
-  </si>
-  <si>
-    <t>1982-Q2</t>
-  </si>
-  <si>
-    <t>1982-Q3</t>
-  </si>
-  <si>
-    <t>1982-Q4</t>
-  </si>
-  <si>
-    <t>1983-Q1</t>
-  </si>
-  <si>
-    <t>1983-Q2</t>
-  </si>
-  <si>
-    <t>1983-Q3</t>
-  </si>
-  <si>
-    <t>1983-Q4</t>
-  </si>
-  <si>
-    <t>1984-Q1</t>
-  </si>
-  <si>
-    <t>1984-Q2</t>
-  </si>
-  <si>
-    <t>1984-Q3</t>
-  </si>
-  <si>
-    <t>1984-Q4</t>
-  </si>
-  <si>
-    <t>1985-Q1</t>
-  </si>
-  <si>
-    <t>1985-Q2</t>
-  </si>
-  <si>
-    <t>1985-Q3</t>
-  </si>
-  <si>
-    <t>1985-Q4</t>
-  </si>
-  <si>
-    <t>1986-Q1</t>
-  </si>
-  <si>
-    <t>1986-Q2</t>
-  </si>
-  <si>
-    <t>1986-Q3</t>
-  </si>
-  <si>
-    <t>1986-Q4</t>
-  </si>
-  <si>
-    <t>1987-Q1</t>
-  </si>
-  <si>
-    <t>1987-Q2</t>
-  </si>
-  <si>
-    <t>1987-Q3</t>
-  </si>
-  <si>
-    <t>1987-Q4</t>
-  </si>
-  <si>
-    <t>1988-Q1</t>
-  </si>
-  <si>
-    <t>1988-Q2</t>
-  </si>
-  <si>
-    <t>1988-Q3</t>
-  </si>
-  <si>
-    <t>1988-Q4</t>
-  </si>
-  <si>
-    <t>1989-Q1</t>
-  </si>
-  <si>
-    <t>1989-Q2</t>
-  </si>
-  <si>
-    <t>1989-Q3</t>
-  </si>
-  <si>
-    <t>1989-Q4</t>
-  </si>
-  <si>
-    <t>1990-Q1</t>
-  </si>
-  <si>
-    <t>1990-Q2</t>
-  </si>
-  <si>
-    <t>1990-Q3</t>
-  </si>
-  <si>
-    <t>1990-Q4</t>
-  </si>
-  <si>
-    <t>1991-Q1</t>
-  </si>
-  <si>
-    <t>1991-Q2</t>
-  </si>
-  <si>
-    <t>1991-Q3</t>
-  </si>
-  <si>
-    <t>1991-Q4</t>
-  </si>
-  <si>
-    <t>1992-Q1</t>
-  </si>
-  <si>
-    <t>1992-Q2</t>
-  </si>
-  <si>
-    <t>1992-Q3</t>
-  </si>
-  <si>
-    <t>1992-Q4</t>
-  </si>
-  <si>
-    <t>1993-Q1</t>
-  </si>
-  <si>
-    <t>1993-Q2</t>
-  </si>
-  <si>
-    <t>1993-Q3</t>
-  </si>
-  <si>
-    <t>1993-Q4</t>
-  </si>
-  <si>
-    <t>1994-Q1</t>
-  </si>
-  <si>
-    <t>1994-Q2</t>
-  </si>
-  <si>
-    <t>1994-Q3</t>
-  </si>
-  <si>
-    <t>1994-Q4</t>
-  </si>
-  <si>
-    <t>1995-Q1</t>
-  </si>
-  <si>
-    <t>1995-Q2</t>
-  </si>
-  <si>
-    <t>1995-Q3</t>
-  </si>
-  <si>
-    <t>1995-Q4</t>
-  </si>
-  <si>
-    <t>1996-Q1</t>
-  </si>
-  <si>
-    <t>1996-Q2</t>
-  </si>
-  <si>
-    <t>1996-Q3</t>
-  </si>
-  <si>
-    <t>1996-Q4</t>
-  </si>
-  <si>
-    <t>1997-Q1</t>
-  </si>
-  <si>
-    <t>1997-Q2</t>
-  </si>
-  <si>
-    <t>1997-Q3</t>
-  </si>
-  <si>
-    <t>1997-Q4</t>
-  </si>
-  <si>
-    <t>1998-Q1</t>
-  </si>
-  <si>
-    <t>1998-Q2</t>
-  </si>
-  <si>
-    <t>1998-Q3</t>
-  </si>
-  <si>
-    <t>1998-Q4</t>
-  </si>
-  <si>
-    <t>1999-Q1</t>
-  </si>
-  <si>
-    <t>1999-Q2</t>
-  </si>
-  <si>
-    <t>1999-Q3</t>
-  </si>
-  <si>
-    <t>1999-Q4</t>
-  </si>
-  <si>
-    <t>2000-Q1</t>
-  </si>
-  <si>
-    <t>2000-Q2</t>
-  </si>
-  <si>
-    <t>2000-Q3</t>
-  </si>
-  <si>
-    <t>2000-Q4</t>
-  </si>
-  <si>
-    <t>2001-Q1</t>
-  </si>
-  <si>
-    <t>2001-Q2</t>
-  </si>
-  <si>
-    <t>2001-Q3</t>
-  </si>
-  <si>
-    <t>2001-Q4</t>
-  </si>
-  <si>
-    <t>2002-Q1</t>
-  </si>
-  <si>
-    <t>2002-Q2</t>
-  </si>
-  <si>
-    <t>2002-Q3</t>
-  </si>
-  <si>
-    <t>2002-Q4</t>
-  </si>
-  <si>
-    <t>2003-Q1</t>
-  </si>
-  <si>
-    <t>2003-Q2</t>
-  </si>
-  <si>
-    <t>2003-Q3</t>
-  </si>
-  <si>
-    <t>2003-Q4</t>
-  </si>
-  <si>
-    <t>2004-Q1</t>
-  </si>
-  <si>
-    <t>2004-Q2</t>
-  </si>
-  <si>
-    <t>2004-Q3</t>
-  </si>
-  <si>
-    <t>2004-Q4</t>
-  </si>
-  <si>
-    <t>2005-Q1</t>
-  </si>
-  <si>
-    <t>2005-Q2</t>
-  </si>
-  <si>
-    <t>2005-Q3</t>
-  </si>
-  <si>
-    <t>2005-Q4</t>
-  </si>
-  <si>
-    <t>2006-Q1</t>
-  </si>
-  <si>
-    <t>2006-Q2</t>
-  </si>
-  <si>
-    <t>2006-Q3</t>
-  </si>
-  <si>
-    <t>2006-Q4</t>
-  </si>
-  <si>
-    <t>2007-Q1</t>
-  </si>
-  <si>
-    <t>2007-Q2</t>
-  </si>
-  <si>
-    <t>2007-Q3</t>
-  </si>
-  <si>
-    <t>2007-Q4</t>
-  </si>
-  <si>
-    <t>2008-Q1</t>
-  </si>
-  <si>
-    <t>2008-Q2</t>
-  </si>
-  <si>
-    <t>2008-Q3</t>
-  </si>
-  <si>
-    <t>2008-Q4</t>
-  </si>
-  <si>
-    <t>2009-Q1</t>
-  </si>
-  <si>
-    <t>2009-Q2</t>
-  </si>
-  <si>
-    <t>2009-Q3</t>
-  </si>
-  <si>
-    <t>2009-Q4</t>
-  </si>
-  <si>
-    <t>2010-Q1</t>
-  </si>
-  <si>
-    <t>2010-Q2</t>
-  </si>
-  <si>
-    <t>2010-Q3</t>
-  </si>
-  <si>
-    <t>2010-Q4</t>
-  </si>
-  <si>
-    <t>2011-Q1</t>
-  </si>
-  <si>
-    <t>2011-Q2</t>
-  </si>
-  <si>
-    <t>2011-Q3</t>
-  </si>
-  <si>
-    <t>2011-Q4</t>
-  </si>
-  <si>
-    <t>2012-Q1</t>
-  </si>
-  <si>
-    <t>2012-Q2</t>
-  </si>
-  <si>
-    <t>2012-Q3</t>
-  </si>
-  <si>
-    <t>2012-Q4</t>
-  </si>
-  <si>
-    <t>2013-Q1</t>
-  </si>
-  <si>
-    <t>2013-Q2</t>
-  </si>
-  <si>
-    <t>2013-Q3</t>
-  </si>
-  <si>
-    <t>2013-Q4</t>
-  </si>
-  <si>
-    <t>2014-Q1</t>
-  </si>
-  <si>
-    <t>2014-Q2</t>
-  </si>
-  <si>
-    <t>2014-Q3</t>
-  </si>
-  <si>
-    <t>2014-Q4</t>
-  </si>
-  <si>
-    <t>2015-Q1</t>
-  </si>
-  <si>
-    <t>2015-Q2</t>
-  </si>
-  <si>
-    <t>2015-Q3</t>
-  </si>
-  <si>
-    <t>2015-Q4</t>
-  </si>
-  <si>
-    <t>2016-Q1</t>
-  </si>
-  <si>
-    <t>2016-Q2</t>
-  </si>
-  <si>
-    <t>2016-Q3</t>
-  </si>
-  <si>
-    <t>2016-Q4</t>
-  </si>
-  <si>
-    <t>2017-Q1</t>
-  </si>
-  <si>
-    <t>2017-Q2</t>
-  </si>
-  <si>
-    <t>2017-Q3</t>
-  </si>
-  <si>
-    <t>2017-Q4</t>
-  </si>
-  <si>
-    <t>2018-Q1</t>
-  </si>
-  <si>
-    <t>2018-Q2</t>
-  </si>
-  <si>
-    <t>2018-Q3</t>
-  </si>
-  <si>
-    <t>2018-Q4</t>
-  </si>
-  <si>
-    <t>2019-Q1</t>
-  </si>
-  <si>
-    <t>2019-Q2</t>
-  </si>
-  <si>
-    <t>2019-Q3</t>
-  </si>
-  <si>
-    <t>2019-Q4</t>
-  </si>
-  <si>
-    <t>2020-Q1</t>
-  </si>
-  <si>
-    <t>2020-Q2</t>
-  </si>
-  <si>
-    <t>2020-Q3</t>
-  </si>
-  <si>
-    <t>2020-Q4</t>
-  </si>
-  <si>
-    <t>2021-Q1</t>
-  </si>
-  <si>
-    <t>2021-Q2</t>
-  </si>
-  <si>
-    <t>2021-Q3</t>
-  </si>
-  <si>
-    <t>2021-Q4</t>
-  </si>
-  <si>
-    <t>2022-Q1</t>
-  </si>
-  <si>
-    <t>2022-Q2</t>
-  </si>
-  <si>
-    <t>2022-Q3</t>
-  </si>
-  <si>
-    <t>2022-Q4</t>
-  </si>
-  <si>
-    <t>Palay</t>
-  </si>
-  <si>
-    <t>Corn</t>
-  </si>
-  <si>
-    <t>Coconut including copra</t>
-  </si>
-  <si>
-    <t>Sugarcane including muscovado sugar-making in the farm</t>
-  </si>
-  <si>
-    <t>Banana</t>
-  </si>
-  <si>
-    <t>Other agricultural crops, nec</t>
-  </si>
-  <si>
-    <t>Livestock</t>
-  </si>
-  <si>
-    <t>Poultry and egg production</t>
-  </si>
-  <si>
-    <t>Forestry and logging</t>
-  </si>
-  <si>
-    <t>Fishing and aquaculture</t>
-  </si>
-  <si>
-    <t>Support activities to agriculture, forestry and fishing</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -594,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -613,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -910,4199 +353,5269 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:FM12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:169">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>167</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1981-Q2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1981-Q3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1981-Q4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1982-Q1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1982-Q2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1982-Q3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1982-Q4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1983-Q1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1983-Q2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1983-Q3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1983-Q4</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1984-Q1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1984-Q2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1984-Q3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1984-Q4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1985-Q1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1985-Q2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1985-Q3</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1985-Q4</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1986-Q1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1986-Q2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1986-Q3</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1986-Q4</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1987-Q1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1987-Q2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1987-Q3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1987-Q4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1988-Q1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1988-Q2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1988-Q3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1988-Q4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1989-Q1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1989-Q2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1989-Q3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1989-Q4</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q2</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q3</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q4</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q1</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q3</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q4</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q3</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q4</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q3</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q4</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q3</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q4</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q3</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q4</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q3</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q4</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q3</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q4</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q1</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q3</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q4</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q3</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q4</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q1</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q3</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q4</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q1</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q3</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q4</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q1</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q2</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q3</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q4</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q1</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q2</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q3</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q4</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q2</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q3</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q4</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q1</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q2</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q3</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q4</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q1</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q2</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q3</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q4</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q1</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q2</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q3</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q4</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q1</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q2</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q3</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q4</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q2</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q3</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q4</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q1</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q2</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q3</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q4</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q1</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q2</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q3</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q4</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q1</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q2</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q3</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q4</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q1</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q2</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q3</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q4</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q1</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q2</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q3</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q4</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q1</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q2</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q3</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q4</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q1</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q2</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q3</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q4</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q1</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q2</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q3</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q4</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q1</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q2</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q3</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q4</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q1</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q2</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q3</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q4</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:169">
-      <c r="A2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BN2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Palay</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="n">
         <v>51490.97225</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="n">
         <v>45843.18767</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="n">
         <v>35914.50253</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" t="n">
         <v>93075.79042</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" t="n">
         <v>46900.07783</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" t="n">
         <v>28450.49339</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" t="n">
         <v>26621.74812</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" t="n">
         <v>76579.88770000001</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" t="n">
         <v>62119.6517</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" t="n">
         <v>46979.95659</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" t="n">
         <v>46247.87383</v>
       </c>
-      <c r="BY2">
+      <c r="BY2" t="n">
         <v>87489.68892</v>
       </c>
-      <c r="BZ2">
+      <c r="BZ2" t="n">
         <v>64912.482015</v>
       </c>
-      <c r="CA2">
+      <c r="CA2" t="n">
         <v>59378.991105</v>
       </c>
-      <c r="CB2">
+      <c r="CB2" t="n">
         <v>55600.436916</v>
       </c>
-      <c r="CC2">
+      <c r="CC2" t="n">
         <v>104487.355185</v>
       </c>
-      <c r="CD2">
+      <c r="CD2" t="n">
         <v>63426.269098</v>
       </c>
-      <c r="CE2">
+      <c r="CE2" t="n">
         <v>62226.890995</v>
       </c>
-      <c r="CF2">
+      <c r="CF2" t="n">
         <v>54571.455034</v>
       </c>
-      <c r="CG2">
+      <c r="CG2" t="n">
         <v>112601.530525</v>
       </c>
-      <c r="CH2">
+      <c r="CH2" t="n">
         <v>66949.669758</v>
       </c>
-      <c r="CI2">
+      <c r="CI2" t="n">
         <v>58569.325979</v>
       </c>
-      <c r="CJ2">
+      <c r="CJ2" t="n">
         <v>46797.219765</v>
       </c>
-      <c r="CK2">
+      <c r="CK2" t="n">
         <v>124574.319994</v>
       </c>
-      <c r="CL2">
+      <c r="CL2" t="n">
         <v>67148.65661000001</v>
       </c>
-      <c r="CM2">
+      <c r="CM2" t="n">
         <v>52355.81045</v>
       </c>
-      <c r="CN2">
+      <c r="CN2" t="n">
         <v>53882.672775</v>
       </c>
-      <c r="CO2">
+      <c r="CO2" t="n">
         <v>125765.350952</v>
       </c>
-      <c r="CP2">
+      <c r="CP2" t="n">
         <v>74517.129457</v>
       </c>
-      <c r="CQ2">
+      <c r="CQ2" t="n">
         <v>57886.980342</v>
       </c>
-      <c r="CR2">
+      <c r="CR2" t="n">
         <v>63603.465213</v>
       </c>
-      <c r="CS2">
+      <c r="CS2" t="n">
         <v>124180.535115</v>
       </c>
-      <c r="CT2">
+      <c r="CT2" t="n">
         <v>73251.93555900001</v>
       </c>
-      <c r="CU2">
+      <c r="CU2" t="n">
         <v>58860.170487</v>
       </c>
-      <c r="CV2">
+      <c r="CV2" t="n">
         <v>59620.397255</v>
       </c>
-      <c r="CW2">
+      <c r="CW2" t="n">
         <v>131979.944321</v>
       </c>
-      <c r="CX2">
+      <c r="CX2" t="n">
         <v>78744.041818</v>
       </c>
-      <c r="CY2">
+      <c r="CY2" t="n">
         <v>64499.73506</v>
       </c>
-      <c r="CZ2">
+      <c r="CZ2" t="n">
         <v>65440.746974</v>
       </c>
-      <c r="DA2">
+      <c r="DA2" t="n">
         <v>123483.895251</v>
       </c>
-      <c r="DB2">
+      <c r="DB2" t="n">
         <v>77615.883177</v>
       </c>
-      <c r="DC2">
+      <c r="DC2" t="n">
         <v>64718.554191</v>
       </c>
-      <c r="DD2">
+      <c r="DD2" t="n">
         <v>65949.641399</v>
       </c>
-      <c r="DE2">
+      <c r="DE2" t="n">
         <v>131417.662038</v>
       </c>
-      <c r="DF2">
+      <c r="DF2" t="n">
         <v>77169.52936499999</v>
       </c>
-      <c r="DG2">
+      <c r="DG2" t="n">
         <v>67514.79482</v>
       </c>
-      <c r="DH2">
+      <c r="DH2" t="n">
         <v>70781.97644100001</v>
       </c>
-      <c r="DI2">
+      <c r="DI2" t="n">
         <v>127243.743049</v>
       </c>
-      <c r="DJ2">
+      <c r="DJ2" t="n">
         <v>81128.893394</v>
       </c>
-      <c r="DK2">
+      <c r="DK2" t="n">
         <v>72069.83135399999</v>
       </c>
-      <c r="DL2">
+      <c r="DL2" t="n">
         <v>71508.247737</v>
       </c>
-      <c r="DM2">
+      <c r="DM2" t="n">
         <v>113773.31146</v>
       </c>
-      <c r="DN2">
+      <c r="DN2" t="n">
         <v>73656.005082</v>
       </c>
-      <c r="DO2">
+      <c r="DO2" t="n">
         <v>66422.143238</v>
       </c>
-      <c r="DP2">
+      <c r="DP2" t="n">
         <v>55548.989352</v>
       </c>
-      <c r="DQ2">
+      <c r="DQ2" t="n">
         <v>133797.652525</v>
       </c>
-      <c r="DR2">
+      <c r="DR2" t="n">
         <v>84692.726282</v>
       </c>
-      <c r="DS2">
+      <c r="DS2" t="n">
         <v>74597.128489</v>
       </c>
-      <c r="DT2">
+      <c r="DT2" t="n">
         <v>66356.469723</v>
       </c>
-      <c r="DU2">
+      <c r="DU2" t="n">
         <v>122450.245881</v>
       </c>
-      <c r="DV2">
+      <c r="DV2" t="n">
         <v>83494.80600500001</v>
       </c>
-      <c r="DW2">
+      <c r="DW2" t="n">
         <v>82040.697802</v>
       </c>
-      <c r="DX2">
+      <c r="DX2" t="n">
         <v>74861.855184</v>
       </c>
-      <c r="DY2">
+      <c r="DY2" t="n">
         <v>133564.721424</v>
       </c>
-      <c r="DZ2">
+      <c r="DZ2" t="n">
         <v>87317.696019</v>
       </c>
-      <c r="EA2">
+      <c r="EA2" t="n">
         <v>80781.15399399999</v>
       </c>
-      <c r="EB2">
+      <c r="EB2" t="n">
         <v>70173.779263</v>
       </c>
-      <c r="EC2">
+      <c r="EC2" t="n">
         <v>144512.500221</v>
       </c>
-      <c r="ED2">
+      <c r="ED2" t="n">
         <v>89579.378562</v>
       </c>
-      <c r="EE2">
+      <c r="EE2" t="n">
         <v>85008.80609699999</v>
       </c>
-      <c r="EF2">
+      <c r="EF2" t="n">
         <v>62343.783636</v>
       </c>
-      <c r="EG2">
+      <c r="EG2" t="n">
         <v>152331.829914</v>
       </c>
-      <c r="EH2">
+      <c r="EH2" t="n">
         <v>90071.653425</v>
       </c>
-      <c r="EI2">
+      <c r="EI2" t="n">
         <v>82057.26360400001</v>
       </c>
-      <c r="EJ2">
+      <c r="EJ2" t="n">
         <v>52410.766791</v>
       </c>
-      <c r="EK2">
+      <c r="EK2" t="n">
         <v>146374.170928</v>
       </c>
-      <c r="EL2">
+      <c r="EL2" t="n">
         <v>81072.51238499999</v>
       </c>
-      <c r="EM2">
+      <c r="EM2" t="n">
         <v>76878.173824</v>
       </c>
-      <c r="EN2">
+      <c r="EN2" t="n">
         <v>60653.122357</v>
       </c>
-      <c r="EO2">
+      <c r="EO2" t="n">
         <v>139668.750376</v>
       </c>
-      <c r="EP2">
+      <c r="EP2" t="n">
         <v>89601.490035</v>
       </c>
-      <c r="EQ2">
+      <c r="EQ2" t="n">
         <v>84253.00294200001</v>
       </c>
-      <c r="ER2">
+      <c r="ER2" t="n">
         <v>68013.795571</v>
       </c>
-      <c r="ES2">
+      <c r="ES2" t="n">
         <v>143871.746788</v>
       </c>
-      <c r="ET2">
+      <c r="ET2" t="n">
         <v>94300.392738</v>
       </c>
-      <c r="EU2">
+      <c r="EU2" t="n">
         <v>82840.88961699999</v>
       </c>
-      <c r="EV2">
+      <c r="EV2" t="n">
         <v>64210.648548</v>
       </c>
-      <c r="EW2">
+      <c r="EW2" t="n">
         <v>138959.250855</v>
       </c>
-      <c r="EX2">
+      <c r="EX2" t="n">
         <v>87046.213792</v>
       </c>
-      <c r="EY2">
+      <c r="EY2" t="n">
         <v>74530.84514200001</v>
       </c>
-      <c r="EZ2">
+      <c r="EZ2" t="n">
         <v>58247.181197</v>
       </c>
-      <c r="FA2">
+      <c r="FA2" t="n">
         <v>138157.780293</v>
       </c>
-      <c r="FB2">
+      <c r="FB2" t="n">
         <v>85392.752098</v>
       </c>
-      <c r="FC2">
+      <c r="FC2" t="n">
         <v>79893.94691699999</v>
       </c>
-      <c r="FD2">
+      <c r="FD2" t="n">
         <v>67223.92061099999</v>
       </c>
-      <c r="FE2">
+      <c r="FE2" t="n">
         <v>136694.008254</v>
       </c>
-      <c r="FF2">
+      <c r="FF2" t="n">
         <v>92716.522556</v>
       </c>
-      <c r="FG2">
+      <c r="FG2" t="n">
         <v>80867.72004</v>
       </c>
-      <c r="FH2">
+      <c r="FH2" t="n">
         <v>70995.936025</v>
       </c>
-      <c r="FI2">
+      <c r="FI2" t="n">
         <v>136985.143195</v>
       </c>
-      <c r="FJ2">
+      <c r="FJ2" t="n">
         <v>91004.129311</v>
       </c>
-      <c r="FK2" t="s">
-        <v>179</v>
-      </c>
-      <c r="FL2" t="s">
-        <v>179</v>
-      </c>
-      <c r="FM2" t="s">
-        <v>179</v>
+      <c r="FK2" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL2" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM2" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:169">
-      <c r="A3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BN3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Corn</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="n">
         <v>12976.14482</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" t="n">
         <v>10404.34427</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" t="n">
         <v>20350.7696</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" t="n">
         <v>11240.31256</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" t="n">
         <v>11350.58069</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" t="n">
         <v>3727.290029</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" t="n">
         <v>25711.12959</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" t="n">
         <v>13199.46677</v>
       </c>
-      <c r="BV3">
+      <c r="BV3" t="n">
         <v>17094.46935</v>
       </c>
-      <c r="BW3">
+      <c r="BW3" t="n">
         <v>11118.23857</v>
       </c>
-      <c r="BX3">
+      <c r="BX3" t="n">
         <v>20903.76878</v>
       </c>
-      <c r="BY3">
+      <c r="BY3" t="n">
         <v>11201.18567</v>
       </c>
-      <c r="BZ3">
+      <c r="BZ3" t="n">
         <v>12231.285493</v>
       </c>
-      <c r="CA3">
+      <c r="CA3" t="n">
         <v>11898.991816</v>
       </c>
-      <c r="CB3">
+      <c r="CB3" t="n">
         <v>19682.192527</v>
       </c>
-      <c r="CC3">
+      <c r="CC3" t="n">
         <v>11871.032578</v>
       </c>
-      <c r="CD3">
+      <c r="CD3" t="n">
         <v>13190.185167</v>
       </c>
-      <c r="CE3">
+      <c r="CE3" t="n">
         <v>10840.889735</v>
       </c>
-      <c r="CF3">
+      <c r="CF3" t="n">
         <v>20164.016607</v>
       </c>
-      <c r="CG3">
+      <c r="CG3" t="n">
         <v>11896.39055</v>
       </c>
-      <c r="CH3">
+      <c r="CH3" t="n">
         <v>13444.035634</v>
       </c>
-      <c r="CI3">
+      <c r="CI3" t="n">
         <v>10293.626746</v>
       </c>
-      <c r="CJ3">
+      <c r="CJ3" t="n">
         <v>19756.279382</v>
       </c>
-      <c r="CK3">
+      <c r="CK3" t="n">
         <v>10762.654301</v>
       </c>
-      <c r="CL3">
+      <c r="CL3" t="n">
         <v>16941.492414</v>
       </c>
-      <c r="CM3">
+      <c r="CM3" t="n">
         <v>8786.534532</v>
       </c>
-      <c r="CN3">
+      <c r="CN3" t="n">
         <v>18136.745016</v>
       </c>
-      <c r="CO3">
+      <c r="CO3" t="n">
         <v>14110.814752</v>
       </c>
-      <c r="CP3">
+      <c r="CP3" t="n">
         <v>18804.509972</v>
       </c>
-      <c r="CQ3">
+      <c r="CQ3" t="n">
         <v>10020.615754</v>
       </c>
-      <c r="CR3">
+      <c r="CR3" t="n">
         <v>24056.570175</v>
       </c>
-      <c r="CS3">
+      <c r="CS3" t="n">
         <v>14130.674334</v>
       </c>
-      <c r="CT3">
+      <c r="CT3" t="n">
         <v>15070.041832</v>
       </c>
-      <c r="CU3">
+      <c r="CU3" t="n">
         <v>8870.816252000001</v>
       </c>
-      <c r="CV3">
+      <c r="CV3" t="n">
         <v>27310.354407</v>
       </c>
-      <c r="CW3">
+      <c r="CW3" t="n">
         <v>13433.094168</v>
       </c>
-      <c r="CX3">
+      <c r="CX3" t="n">
         <v>18722.190447</v>
       </c>
-      <c r="CY3">
+      <c r="CY3" t="n">
         <v>13446.046804</v>
       </c>
-      <c r="CZ3">
+      <c r="CZ3" t="n">
         <v>27717.82982</v>
       </c>
-      <c r="DA3">
+      <c r="DA3" t="n">
         <v>15355.680608</v>
       </c>
-      <c r="DB3">
+      <c r="DB3" t="n">
         <v>20783.62235</v>
       </c>
-      <c r="DC3">
+      <c r="DC3" t="n">
         <v>12950.802177</v>
       </c>
-      <c r="DD3">
+      <c r="DD3" t="n">
         <v>31294.146555</v>
       </c>
-      <c r="DE3">
+      <c r="DE3" t="n">
         <v>17797.284158</v>
       </c>
-      <c r="DF3">
+      <c r="DF3" t="n">
         <v>24885.075882</v>
       </c>
-      <c r="DG3">
+      <c r="DG3" t="n">
         <v>15935.556238</v>
       </c>
-      <c r="DH3">
+      <c r="DH3" t="n">
         <v>28298.207422</v>
       </c>
-      <c r="DI3">
+      <c r="DI3" t="n">
         <v>17278.922613</v>
       </c>
-      <c r="DJ3">
+      <c r="DJ3" t="n">
         <v>24148.235083</v>
       </c>
-      <c r="DK3">
+      <c r="DK3" t="n">
         <v>16418.591463</v>
       </c>
-      <c r="DL3">
+      <c r="DL3" t="n">
         <v>29070.052141</v>
       </c>
-      <c r="DM3">
+      <c r="DM3" t="n">
         <v>18455.732817</v>
       </c>
-      <c r="DN3">
+      <c r="DN3" t="n">
         <v>20447.621639</v>
       </c>
-      <c r="DO3">
+      <c r="DO3" t="n">
         <v>10485.016649</v>
       </c>
-      <c r="DP3">
+      <c r="DP3" t="n">
         <v>29674.214333</v>
       </c>
-      <c r="DQ3">
+      <c r="DQ3" t="n">
         <v>20125.281503</v>
       </c>
-      <c r="DR3">
+      <c r="DR3" t="n">
         <v>24371.260334</v>
       </c>
-      <c r="DS3">
+      <c r="DS3" t="n">
         <v>17868.102027</v>
       </c>
-      <c r="DT3">
+      <c r="DT3" t="n">
         <v>27834.649844</v>
       </c>
-      <c r="DU3">
+      <c r="DU3" t="n">
         <v>18235.314316</v>
       </c>
-      <c r="DV3">
+      <c r="DV3" t="n">
         <v>25677.551619</v>
       </c>
-      <c r="DW3">
+      <c r="DW3" t="n">
         <v>18657.836572</v>
       </c>
-      <c r="DX3">
+      <c r="DX3" t="n">
         <v>31031.319795</v>
       </c>
-      <c r="DY3">
+      <c r="DY3" t="n">
         <v>18464.729676</v>
       </c>
-      <c r="DZ3">
+      <c r="DZ3" t="n">
         <v>28815.102331</v>
       </c>
-      <c r="EA3">
+      <c r="EA3" t="n">
         <v>13925.78298</v>
       </c>
-      <c r="EB3">
+      <c r="EB3" t="n">
         <v>33404.903059</v>
       </c>
-      <c r="EC3">
+      <c r="EC3" t="n">
         <v>17865.521153</v>
       </c>
-      <c r="ED3">
+      <c r="ED3" t="n">
         <v>29115.188113</v>
       </c>
-      <c r="EE3">
+      <c r="EE3" t="n">
         <v>15453.421117</v>
       </c>
-      <c r="EF3">
+      <c r="EF3" t="n">
         <v>31181.396977</v>
       </c>
-      <c r="EG3">
+      <c r="EG3" t="n">
         <v>22455.639247</v>
       </c>
-      <c r="EH3">
+      <c r="EH3" t="n">
         <v>30073.104124</v>
       </c>
-      <c r="EI3">
+      <c r="EI3" t="n">
         <v>12882.917593</v>
       </c>
-      <c r="EJ3">
+      <c r="EJ3" t="n">
         <v>30495.71479</v>
       </c>
-      <c r="EK3">
+      <c r="EK3" t="n">
         <v>21004.164799</v>
       </c>
-      <c r="EL3">
+      <c r="EL3" t="n">
         <v>24272.38536</v>
       </c>
-      <c r="EM3">
+      <c r="EM3" t="n">
         <v>11541.167793</v>
       </c>
-      <c r="EN3">
+      <c r="EN3" t="n">
         <v>33544.041019</v>
       </c>
-      <c r="EO3">
+      <c r="EO3" t="n">
         <v>20828.122811</v>
       </c>
-      <c r="EP3">
+      <c r="EP3" t="n">
         <v>29702.537218</v>
       </c>
-      <c r="EQ3">
+      <c r="EQ3" t="n">
         <v>16701.352336</v>
       </c>
-      <c r="ER3">
+      <c r="ER3" t="n">
         <v>32381.674557</v>
       </c>
-      <c r="ES3">
+      <c r="ES3" t="n">
         <v>19572.212658</v>
       </c>
-      <c r="ET3">
+      <c r="ET3" t="n">
         <v>31294.915425</v>
       </c>
-      <c r="EU3">
+      <c r="EU3" t="n">
         <v>16081.626525</v>
       </c>
-      <c r="EV3">
+      <c r="EV3" t="n">
         <v>27799.496987</v>
       </c>
-      <c r="EW3">
+      <c r="EW3" t="n">
         <v>21728.120419</v>
       </c>
-      <c r="EX3">
+      <c r="EX3" t="n">
         <v>30724.374686</v>
       </c>
-      <c r="EY3">
+      <c r="EY3" t="n">
         <v>14744.652754</v>
       </c>
-      <c r="EZ3">
+      <c r="EZ3" t="n">
         <v>34473.057326</v>
       </c>
-      <c r="FA3">
+      <c r="FA3" t="n">
         <v>20142.529101</v>
       </c>
-      <c r="FB3">
+      <c r="FB3" t="n">
         <v>29372.328897</v>
       </c>
-      <c r="FC3">
+      <c r="FC3" t="n">
         <v>17046.78288</v>
       </c>
-      <c r="FD3">
+      <c r="FD3" t="n">
         <v>35879.924184</v>
       </c>
-      <c r="FE3">
+      <c r="FE3" t="n">
         <v>20216.222925</v>
       </c>
-      <c r="FF3">
+      <c r="FF3" t="n">
         <v>31265.578491</v>
       </c>
-      <c r="FG3">
+      <c r="FG3" t="n">
         <v>18123.200734</v>
       </c>
-      <c r="FH3">
+      <c r="FH3" t="n">
         <v>29350.745707</v>
       </c>
-      <c r="FI3">
+      <c r="FI3" t="n">
         <v>26012.277562</v>
       </c>
-      <c r="FJ3">
+      <c r="FJ3" t="n">
         <v>31046.339286</v>
       </c>
-      <c r="FK3" t="s">
-        <v>179</v>
-      </c>
-      <c r="FL3" t="s">
-        <v>179</v>
-      </c>
-      <c r="FM3" t="s">
-        <v>179</v>
+      <c r="FK3" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL3" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM3" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:169">
-      <c r="A4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BN4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Coconut including copra</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="n">
         <v>16450.89497</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" t="n">
         <v>18754.23158</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" t="n">
         <v>21617.55369</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" t="n">
         <v>20096.08364</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" t="n">
         <v>15595.49608</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" t="n">
         <v>16116.61684</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" t="n">
         <v>18878.30931</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" t="n">
         <v>17340.37108</v>
       </c>
-      <c r="BV4">
+      <c r="BV4" t="n">
         <v>16205.6737</v>
       </c>
-      <c r="BW4">
+      <c r="BW4" t="n">
         <v>14164.34857</v>
       </c>
-      <c r="BX4">
+      <c r="BX4" t="n">
         <v>15789.86448</v>
       </c>
-      <c r="BY4">
+      <c r="BY4" t="n">
         <v>21726.80383</v>
       </c>
-      <c r="BZ4">
+      <c r="BZ4" t="n">
         <v>15231.438502</v>
       </c>
-      <c r="CA4">
+      <c r="CA4" t="n">
         <v>13841.061801</v>
       </c>
-      <c r="CB4">
+      <c r="CB4" t="n">
         <v>16059.393186</v>
       </c>
-      <c r="CC4">
+      <c r="CC4" t="n">
         <v>24952.308311</v>
       </c>
-      <c r="CD4">
+      <c r="CD4" t="n">
         <v>15290.005662</v>
       </c>
-      <c r="CE4">
+      <c r="CE4" t="n">
         <v>16710.238358</v>
       </c>
-      <c r="CF4">
+      <c r="CF4" t="n">
         <v>18613.218431</v>
       </c>
-      <c r="CG4">
+      <c r="CG4" t="n">
         <v>22130.256866</v>
       </c>
-      <c r="CH4">
+      <c r="CH4" t="n">
         <v>18164.738831</v>
       </c>
-      <c r="CI4">
+      <c r="CI4" t="n">
         <v>16191.182967</v>
       </c>
-      <c r="CJ4">
+      <c r="CJ4" t="n">
         <v>21627.08158</v>
       </c>
-      <c r="CK4">
+      <c r="CK4" t="n">
         <v>22904.582094</v>
       </c>
-      <c r="CL4">
+      <c r="CL4" t="n">
         <v>19293.383608</v>
       </c>
-      <c r="CM4">
+      <c r="CM4" t="n">
         <v>17407.207611</v>
       </c>
-      <c r="CN4">
+      <c r="CN4" t="n">
         <v>22157.518257</v>
       </c>
-      <c r="CO4">
+      <c r="CO4" t="n">
         <v>21536.768761</v>
       </c>
-      <c r="CP4">
+      <c r="CP4" t="n">
         <v>19026.218037</v>
       </c>
-      <c r="CQ4">
+      <c r="CQ4" t="n">
         <v>17171.260197</v>
       </c>
-      <c r="CR4">
+      <c r="CR4" t="n">
         <v>22544.985962</v>
       </c>
-      <c r="CS4">
+      <c r="CS4" t="n">
         <v>21973.92817</v>
       </c>
-      <c r="CT4">
+      <c r="CT4" t="n">
         <v>19843.888777</v>
       </c>
-      <c r="CU4">
+      <c r="CU4" t="n">
         <v>17654.460345</v>
       </c>
-      <c r="CV4">
+      <c r="CV4" t="n">
         <v>23693.189302</v>
       </c>
-      <c r="CW4">
+      <c r="CW4" t="n">
         <v>22482.148499</v>
       </c>
-      <c r="CX4">
+      <c r="CX4" t="n">
         <v>20773.076645</v>
       </c>
-      <c r="CY4">
+      <c r="CY4" t="n">
         <v>18131.413103</v>
       </c>
-      <c r="CZ4">
+      <c r="CZ4" t="n">
         <v>23910.818933</v>
       </c>
-      <c r="DA4">
+      <c r="DA4" t="n">
         <v>22002.271636</v>
       </c>
-      <c r="DB4">
+      <c r="DB4" t="n">
         <v>19577.4964</v>
       </c>
-      <c r="DC4">
+      <c r="DC4" t="n">
         <v>17168.311409</v>
       </c>
-      <c r="DD4">
+      <c r="DD4" t="n">
         <v>24081.775207</v>
       </c>
-      <c r="DE4">
+      <c r="DE4" t="n">
         <v>22725.658399</v>
       </c>
-      <c r="DF4">
+      <c r="DF4" t="n">
         <v>21141.935445</v>
       </c>
-      <c r="DG4">
+      <c r="DG4" t="n">
         <v>18095.746148</v>
       </c>
-      <c r="DH4">
+      <c r="DH4" t="n">
         <v>24642.455819</v>
       </c>
-      <c r="DI4">
+      <c r="DI4" t="n">
         <v>23118.21913</v>
       </c>
-      <c r="DJ4">
+      <c r="DJ4" t="n">
         <v>21360.736532</v>
       </c>
-      <c r="DK4">
+      <c r="DK4" t="n">
         <v>18862.024271</v>
       </c>
-      <c r="DL4">
+      <c r="DL4" t="n">
         <v>24879.940465</v>
       </c>
-      <c r="DM4">
+      <c r="DM4" t="n">
         <v>23872.942957</v>
       </c>
-      <c r="DN4">
+      <c r="DN4" t="n">
         <v>29844.029778</v>
       </c>
-      <c r="DO4">
+      <c r="DO4" t="n">
         <v>15009.290829</v>
       </c>
-      <c r="DP4">
+      <c r="DP4" t="n">
         <v>22278.628094</v>
       </c>
-      <c r="DQ4">
+      <c r="DQ4" t="n">
         <v>21506.735667</v>
       </c>
-      <c r="DR4">
+      <c r="DR4" t="n">
         <v>28050.406181</v>
       </c>
-      <c r="DS4">
+      <c r="DS4" t="n">
         <v>14484.1879</v>
       </c>
-      <c r="DT4">
+      <c r="DT4" t="n">
         <v>22266.449009</v>
       </c>
-      <c r="DU4">
+      <c r="DU4" t="n">
         <v>22095.024376</v>
       </c>
-      <c r="DV4">
+      <c r="DV4" t="n">
         <v>29543.126051</v>
       </c>
-      <c r="DW4">
+      <c r="DW4" t="n">
         <v>15158.418895</v>
       </c>
-      <c r="DX4">
+      <c r="DX4" t="n">
         <v>23159.472669</v>
       </c>
-      <c r="DY4">
+      <c r="DY4" t="n">
         <v>22201.586097</v>
       </c>
-      <c r="DZ4">
+      <c r="DZ4" t="n">
         <v>29330.780917</v>
       </c>
-      <c r="EA4">
+      <c r="EA4" t="n">
         <v>14862.642808</v>
       </c>
-      <c r="EB4">
+      <c r="EB4" t="n">
         <v>22510.008891</v>
       </c>
-      <c r="EC4">
+      <c r="EC4" t="n">
         <v>21042.161788</v>
       </c>
-      <c r="ED4">
+      <c r="ED4" t="n">
         <v>27125.52953</v>
       </c>
-      <c r="EE4">
+      <c r="EE4" t="n">
         <v>14013.703579</v>
       </c>
-      <c r="EF4">
+      <c r="EF4" t="n">
         <v>21061.048271</v>
       </c>
-      <c r="EG4">
+      <c r="EG4" t="n">
         <v>20713.454851</v>
       </c>
-      <c r="EH4">
+      <c r="EH4" t="n">
         <v>27194.05839</v>
       </c>
-      <c r="EI4">
+      <c r="EI4" t="n">
         <v>13933.327281</v>
       </c>
-      <c r="EJ4">
+      <c r="EJ4" t="n">
         <v>21246.300901</v>
       </c>
-      <c r="EK4">
+      <c r="EK4" t="n">
         <v>20757.291278</v>
       </c>
-      <c r="EL4">
+      <c r="EL4" t="n">
         <v>26035.662788</v>
       </c>
-      <c r="EM4">
+      <c r="EM4" t="n">
         <v>12974.828337</v>
       </c>
-      <c r="EN4">
+      <c r="EN4" t="n">
         <v>19725.407602</v>
       </c>
-      <c r="EO4">
+      <c r="EO4" t="n">
         <v>19624.801282</v>
       </c>
-      <c r="EP4">
+      <c r="EP4" t="n">
         <v>25057.319475</v>
       </c>
-      <c r="EQ4">
+      <c r="EQ4" t="n">
         <v>13089.92948</v>
       </c>
-      <c r="ER4">
+      <c r="ER4" t="n">
         <v>20569.15047</v>
       </c>
-      <c r="ES4">
+      <c r="ES4" t="n">
         <v>20434.224984</v>
       </c>
-      <c r="ET4">
+      <c r="ET4" t="n">
         <v>27184.000911</v>
       </c>
-      <c r="EU4">
+      <c r="EU4" t="n">
         <v>13559.554253</v>
       </c>
-      <c r="EV4">
+      <c r="EV4" t="n">
         <v>21655.251775</v>
       </c>
-      <c r="EW4">
+      <c r="EW4" t="n">
         <v>21128.741255</v>
       </c>
-      <c r="EX4">
+      <c r="EX4" t="n">
         <v>27287.190834</v>
       </c>
-      <c r="EY4">
+      <c r="EY4" t="n">
         <v>13513.307372</v>
       </c>
-      <c r="EZ4">
+      <c r="EZ4" t="n">
         <v>21832.611466</v>
       </c>
-      <c r="FA4">
+      <c r="FA4" t="n">
         <v>21769.42758</v>
       </c>
-      <c r="FB4">
+      <c r="FB4" t="n">
         <v>25894.752252</v>
       </c>
-      <c r="FC4">
+      <c r="FC4" t="n">
         <v>13194.220612</v>
       </c>
-      <c r="FD4">
+      <c r="FD4" t="n">
         <v>21333.375999</v>
       </c>
-      <c r="FE4">
+      <c r="FE4" t="n">
         <v>21563.536038</v>
       </c>
-      <c r="FF4">
+      <c r="FF4" t="n">
         <v>25686.164979</v>
       </c>
-      <c r="FG4">
+      <c r="FG4" t="n">
         <v>13260.560143</v>
       </c>
-      <c r="FH4">
+      <c r="FH4" t="n">
         <v>21722.896676</v>
       </c>
-      <c r="FI4">
+      <c r="FI4" t="n">
         <v>22219.682317</v>
       </c>
-      <c r="FJ4">
+      <c r="FJ4" t="n">
         <v>26117.402679</v>
       </c>
-      <c r="FK4" t="s">
-        <v>179</v>
-      </c>
-      <c r="FL4" t="s">
-        <v>179</v>
-      </c>
-      <c r="FM4" t="s">
-        <v>179</v>
+      <c r="FK4" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL4" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM4" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:169">
-      <c r="A5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BN5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Sugarcane including muscovado sugar-making in the farm</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="n">
         <v>12592.2138</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" t="n">
         <v>5354.82846</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" t="n">
         <v>193.4850127</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" t="n">
         <v>7823.069704</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" t="n">
         <v>13615.68349</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" t="n">
         <v>3022.987155</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" t="n">
         <v>10.32165243</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" t="n">
         <v>3701.047348</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" t="n">
         <v>11289.57009</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" t="n">
         <v>6857.311077</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" t="n">
         <v>1073.657528</v>
       </c>
-      <c r="BY5">
+      <c r="BY5" t="n">
         <v>7175.498503</v>
       </c>
-      <c r="BZ5">
+      <c r="BZ5" t="n">
         <v>10947.689282</v>
       </c>
-      <c r="CA5">
+      <c r="CA5" t="n">
         <v>4234.167991</v>
       </c>
-      <c r="CB5">
+      <c r="CB5" t="n">
         <v>965.878867</v>
       </c>
-      <c r="CC5">
+      <c r="CC5" t="n">
         <v>8428.51665</v>
       </c>
-      <c r="CD5">
+      <c r="CD5" t="n">
         <v>11221.553475</v>
       </c>
-      <c r="CE5">
+      <c r="CE5" t="n">
         <v>4077.901285</v>
       </c>
-      <c r="CF5">
+      <c r="CF5" t="n">
         <v>976.142188</v>
       </c>
-      <c r="CG5">
+      <c r="CG5" t="n">
         <v>8134.028318</v>
       </c>
-      <c r="CH5">
+      <c r="CH5" t="n">
         <v>11755.580654</v>
       </c>
-      <c r="CI5">
+      <c r="CI5" t="n">
         <v>3952.261432</v>
       </c>
-      <c r="CJ5">
+      <c r="CJ5" t="n">
         <v>557.132827</v>
       </c>
-      <c r="CK5">
+      <c r="CK5" t="n">
         <v>8475.976058</v>
       </c>
-      <c r="CL5">
+      <c r="CL5" t="n">
         <v>14006.045318</v>
       </c>
-      <c r="CM5">
+      <c r="CM5" t="n">
         <v>4751.951573</v>
       </c>
-      <c r="CN5">
+      <c r="CN5" t="n">
         <v>422.073756</v>
       </c>
-      <c r="CO5">
+      <c r="CO5" t="n">
         <v>8372.666479</v>
       </c>
-      <c r="CP5">
+      <c r="CP5" t="n">
         <v>13568.539026</v>
       </c>
-      <c r="CQ5">
+      <c r="CQ5" t="n">
         <v>6142.106157</v>
       </c>
-      <c r="CR5">
+      <c r="CR5" t="n">
         <v>343.595497</v>
       </c>
-      <c r="CS5">
+      <c r="CS5" t="n">
         <v>8449.885294</v>
       </c>
-      <c r="CT5">
+      <c r="CT5" t="n">
         <v>12979.936394</v>
       </c>
-      <c r="CU5">
+      <c r="CU5" t="n">
         <v>4618.989165</v>
       </c>
-      <c r="CV5">
+      <c r="CV5" t="n">
         <v>301.091177</v>
       </c>
-      <c r="CW5">
+      <c r="CW5" t="n">
         <v>8656.972201</v>
       </c>
-      <c r="CX5">
+      <c r="CX5" t="n">
         <v>13393.657656</v>
       </c>
-      <c r="CY5">
+      <c r="CY5" t="n">
         <v>4824.741731</v>
       </c>
-      <c r="CZ5">
+      <c r="CZ5" t="n">
         <v>474.522293</v>
       </c>
-      <c r="DA5">
+      <c r="DA5" t="n">
         <v>10110.757362</v>
       </c>
-      <c r="DB5">
+      <c r="DB5" t="n">
         <v>13543.300812</v>
       </c>
-      <c r="DC5">
+      <c r="DC5" t="n">
         <v>3656.724908</v>
       </c>
-      <c r="DD5">
+      <c r="DD5" t="n">
         <v>418.036999</v>
       </c>
-      <c r="DE5">
+      <c r="DE5" t="n">
         <v>7805.637066</v>
       </c>
-      <c r="DF5">
+      <c r="DF5" t="n">
         <v>13018.696114</v>
       </c>
-      <c r="DG5">
+      <c r="DG5" t="n">
         <v>6902.09357</v>
       </c>
-      <c r="DH5">
+      <c r="DH5" t="n">
         <v>604.788852</v>
       </c>
-      <c r="DI5">
+      <c r="DI5" t="n">
         <v>7616.570345</v>
       </c>
-      <c r="DJ5">
+      <c r="DJ5" t="n">
         <v>12481.455971</v>
       </c>
-      <c r="DK5">
+      <c r="DK5" t="n">
         <v>3464.850962</v>
       </c>
-      <c r="DL5">
+      <c r="DL5" t="n">
         <v>676.416874</v>
       </c>
-      <c r="DM5">
+      <c r="DM5" t="n">
         <v>9340.578857</v>
       </c>
-      <c r="DN5">
+      <c r="DN5" t="n">
         <v>12844.312785</v>
       </c>
-      <c r="DO5">
+      <c r="DO5" t="n">
         <v>1464.030922</v>
       </c>
-      <c r="DP5">
+      <c r="DP5" t="n">
         <v>126.501573</v>
       </c>
-      <c r="DQ5">
+      <c r="DQ5" t="n">
         <v>6795.376185</v>
       </c>
-      <c r="DR5">
+      <c r="DR5" t="n">
         <v>16156.68442</v>
       </c>
-      <c r="DS5">
+      <c r="DS5" t="n">
         <v>8807.820409</v>
       </c>
-      <c r="DT5">
+      <c r="DT5" t="n">
         <v>391.540495</v>
       </c>
-      <c r="DU5">
+      <c r="DU5" t="n">
         <v>8552.028399999999</v>
       </c>
-      <c r="DV5">
+      <c r="DV5" t="n">
         <v>15152.439284</v>
       </c>
-      <c r="DW5">
+      <c r="DW5" t="n">
         <v>5088.133973</v>
       </c>
-      <c r="DX5">
+      <c r="DX5" t="n">
         <v>613.6773909999999</v>
       </c>
-      <c r="DY5">
+      <c r="DY5" t="n">
         <v>10048.651782</v>
       </c>
-      <c r="DZ5">
+      <c r="DZ5" t="n">
         <v>15013.389242</v>
       </c>
-      <c r="EA5">
+      <c r="EA5" t="n">
         <v>3905.747732</v>
       </c>
-      <c r="EB5">
+      <c r="EB5" t="n">
         <v>761.649647</v>
       </c>
-      <c r="EC5">
+      <c r="EC5" t="n">
         <v>9078.047671</v>
       </c>
-      <c r="ED5">
+      <c r="ED5" t="n">
         <v>15790.603407</v>
       </c>
-      <c r="EE5">
+      <c r="EE5" t="n">
         <v>4073.036684</v>
       </c>
-      <c r="EF5">
+      <c r="EF5" t="n">
         <v>1007.707871</v>
       </c>
-      <c r="EG5">
+      <c r="EG5" t="n">
         <v>8387.951478999999</v>
       </c>
-      <c r="EH5">
+      <c r="EH5" t="n">
         <v>15415.322272</v>
       </c>
-      <c r="EI5">
+      <c r="EI5" t="n">
         <v>3441.797567</v>
       </c>
-      <c r="EJ5">
+      <c r="EJ5" t="n">
         <v>587.1863980000001</v>
       </c>
-      <c r="EK5">
+      <c r="EK5" t="n">
         <v>7658.303148</v>
       </c>
-      <c r="EL5">
+      <c r="EL5" t="n">
         <v>15448.44985</v>
       </c>
-      <c r="EM5">
+      <c r="EM5" t="n">
         <v>4252.781331</v>
       </c>
-      <c r="EN5">
+      <c r="EN5" t="n">
         <v>306.975681</v>
       </c>
-      <c r="EO5">
+      <c r="EO5" t="n">
         <v>6328.008677</v>
       </c>
-      <c r="EP5">
+      <c r="EP5" t="n">
         <v>15191.113299</v>
       </c>
-      <c r="EQ5">
+      <c r="EQ5" t="n">
         <v>10697.556442</v>
       </c>
-      <c r="ER5">
+      <c r="ER5" t="n">
         <v>493.000112</v>
       </c>
-      <c r="ES5">
+      <c r="ES5" t="n">
         <v>7175.528501</v>
       </c>
-      <c r="ET5">
+      <c r="ET5" t="n">
         <v>12455.290468</v>
       </c>
-      <c r="EU5">
+      <c r="EU5" t="n">
         <v>7868.084107</v>
       </c>
-      <c r="EV5">
+      <c r="EV5" t="n">
         <v>641.819922</v>
       </c>
-      <c r="EW5">
+      <c r="EW5" t="n">
         <v>7023.227508</v>
       </c>
-      <c r="EX5">
+      <c r="EX5" t="n">
         <v>14269.761865</v>
       </c>
-      <c r="EY5">
+      <c r="EY5" t="n">
         <v>5047.252264</v>
       </c>
-      <c r="EZ5">
+      <c r="EZ5" t="n">
         <v>256.157837</v>
       </c>
-      <c r="FA5">
+      <c r="FA5" t="n">
         <v>5911.182308</v>
       </c>
-      <c r="FB5">
+      <c r="FB5" t="n">
         <v>15533.513534</v>
       </c>
-      <c r="FC5">
+      <c r="FC5" t="n">
         <v>8713.000878000001</v>
       </c>
-      <c r="FD5">
+      <c r="FD5" t="n">
         <v>278.065674</v>
       </c>
-      <c r="FE5">
+      <c r="FE5" t="n">
         <v>6385.600485</v>
       </c>
-      <c r="FF5">
+      <c r="FF5" t="n">
         <v>14834.196734</v>
       </c>
-      <c r="FG5">
+      <c r="FG5" t="n">
         <v>11520.22409</v>
       </c>
-      <c r="FH5">
+      <c r="FH5" t="n">
         <v>558.566248</v>
       </c>
-      <c r="FI5">
+      <c r="FI5" t="n">
         <v>6472.955397</v>
       </c>
-      <c r="FJ5">
+      <c r="FJ5" t="n">
         <v>13330.493975</v>
       </c>
-      <c r="FK5" t="s">
-        <v>179</v>
-      </c>
-      <c r="FL5" t="s">
-        <v>179</v>
-      </c>
-      <c r="FM5" t="s">
-        <v>179</v>
+      <c r="FK5" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL5" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM5" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:169">
-      <c r="A6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BN6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="n">
         <v>12638.83235</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" t="n">
         <v>16458.34978</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" t="n">
         <v>14409.25245</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" t="n">
         <v>12868.33125</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" t="n">
         <v>13914.91564</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" t="n">
         <v>13233.94855</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" t="n">
         <v>11777.7251</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" t="n">
         <v>12669.16785</v>
       </c>
-      <c r="BV6">
+      <c r="BV6" t="n">
         <v>16736.07352</v>
       </c>
-      <c r="BW6">
+      <c r="BW6" t="n">
         <v>18385.60369</v>
       </c>
-      <c r="BX6">
+      <c r="BX6" t="n">
         <v>16617.68851</v>
       </c>
-      <c r="BY6">
+      <c r="BY6" t="n">
         <v>15773.75014</v>
       </c>
-      <c r="BZ6">
+      <c r="BZ6" t="n">
         <v>20924.328501</v>
       </c>
-      <c r="CA6">
+      <c r="CA6" t="n">
         <v>23682.790032</v>
       </c>
-      <c r="CB6">
+      <c r="CB6" t="n">
         <v>21265.458125</v>
       </c>
-      <c r="CC6">
+      <c r="CC6" t="n">
         <v>20556.648848</v>
       </c>
-      <c r="CD6">
+      <c r="CD6" t="n">
         <v>20427.553444</v>
       </c>
-      <c r="CE6">
+      <c r="CE6" t="n">
         <v>23588.708873</v>
       </c>
-      <c r="CF6">
+      <c r="CF6" t="n">
         <v>21697.04124</v>
       </c>
-      <c r="CG6">
+      <c r="CG6" t="n">
         <v>21330.274007</v>
       </c>
-      <c r="CH6">
+      <c r="CH6" t="n">
         <v>20168.834502</v>
       </c>
-      <c r="CI6">
+      <c r="CI6" t="n">
         <v>23954.908922</v>
       </c>
-      <c r="CJ6">
+      <c r="CJ6" t="n">
         <v>22974.936505</v>
       </c>
-      <c r="CK6">
+      <c r="CK6" t="n">
         <v>22025.638664</v>
       </c>
-      <c r="CL6">
+      <c r="CL6" t="n">
         <v>20820.154269</v>
       </c>
-      <c r="CM6">
+      <c r="CM6" t="n">
         <v>24028.353016</v>
       </c>
-      <c r="CN6">
+      <c r="CN6" t="n">
         <v>21719.305041</v>
       </c>
-      <c r="CO6">
+      <c r="CO6" t="n">
         <v>22809.278076</v>
       </c>
-      <c r="CP6">
+      <c r="CP6" t="n">
         <v>20946.887979</v>
       </c>
-      <c r="CQ6">
+      <c r="CQ6" t="n">
         <v>24449.556751</v>
       </c>
-      <c r="CR6">
+      <c r="CR6" t="n">
         <v>22818.860102</v>
       </c>
-      <c r="CS6">
+      <c r="CS6" t="n">
         <v>24210.281483</v>
       </c>
-      <c r="CT6">
+      <c r="CT6" t="n">
         <v>21216.202954</v>
       </c>
-      <c r="CU6">
+      <c r="CU6" t="n">
         <v>26927.556342</v>
       </c>
-      <c r="CV6">
+      <c r="CV6" t="n">
         <v>26111.199204</v>
       </c>
-      <c r="CW6">
+      <c r="CW6" t="n">
         <v>27929.894498</v>
       </c>
-      <c r="CX6">
+      <c r="CX6" t="n">
         <v>24233.184289</v>
       </c>
-      <c r="CY6">
+      <c r="CY6" t="n">
         <v>30118.677582</v>
       </c>
-      <c r="CZ6">
+      <c r="CZ6" t="n">
         <v>27437.288912</v>
       </c>
-      <c r="DA6">
+      <c r="DA6" t="n">
         <v>28033.583415</v>
       </c>
-      <c r="DB6">
+      <c r="DB6" t="n">
         <v>25184.042913</v>
       </c>
-      <c r="DC6">
+      <c r="DC6" t="n">
         <v>31694.607355</v>
       </c>
-      <c r="DD6">
+      <c r="DD6" t="n">
         <v>28346.485993</v>
       </c>
-      <c r="DE6">
+      <c r="DE6" t="n">
         <v>32985.218957</v>
       </c>
-      <c r="DF6">
+      <c r="DF6" t="n">
         <v>30603.7105</v>
       </c>
-      <c r="DG6">
+      <c r="DG6" t="n">
         <v>37579.385142</v>
       </c>
-      <c r="DH6">
+      <c r="DH6" t="n">
         <v>33932.370784</v>
       </c>
-      <c r="DI6">
+      <c r="DI6" t="n">
         <v>35067.037135</v>
       </c>
-      <c r="DJ6">
+      <c r="DJ6" t="n">
         <v>32063.885471</v>
       </c>
-      <c r="DK6">
+      <c r="DK6" t="n">
         <v>40116.640575</v>
       </c>
-      <c r="DL6">
+      <c r="DL6" t="n">
         <v>33638.706695</v>
       </c>
-      <c r="DM6">
+      <c r="DM6" t="n">
         <v>35972.539808</v>
       </c>
-      <c r="DN6">
+      <c r="DN6" t="n">
         <v>31988.242475</v>
       </c>
-      <c r="DO6">
+      <c r="DO6" t="n">
         <v>39308.996601</v>
       </c>
-      <c r="DP6">
+      <c r="DP6" t="n">
         <v>34566.539976</v>
       </c>
-      <c r="DQ6">
+      <c r="DQ6" t="n">
         <v>33605.554428</v>
       </c>
-      <c r="DR6">
+      <c r="DR6" t="n">
         <v>32461.000693</v>
       </c>
-      <c r="DS6">
+      <c r="DS6" t="n">
         <v>38905.883912</v>
       </c>
-      <c r="DT6">
+      <c r="DT6" t="n">
         <v>34912.70624</v>
       </c>
-      <c r="DU6">
+      <c r="DU6" t="n">
         <v>33748.833991</v>
       </c>
-      <c r="DV6">
+      <c r="DV6" t="n">
         <v>33127.414218</v>
       </c>
-      <c r="DW6">
+      <c r="DW6" t="n">
         <v>39485.445902</v>
       </c>
-      <c r="DX6">
+      <c r="DX6" t="n">
         <v>35574.639611</v>
       </c>
-      <c r="DY6">
+      <c r="DY6" t="n">
         <v>32386.858876</v>
       </c>
-      <c r="DZ6">
+      <c r="DZ6" t="n">
         <v>30965.298366</v>
       </c>
-      <c r="EA6">
+      <c r="EA6" t="n">
         <v>35116.643921</v>
       </c>
-      <c r="EB6">
+      <c r="EB6" t="n">
         <v>33200.433228</v>
       </c>
-      <c r="EC6">
+      <c r="EC6" t="n">
         <v>31975.232091</v>
       </c>
-      <c r="ED6">
+      <c r="ED6" t="n">
         <v>31460.018183</v>
       </c>
-      <c r="EE6">
+      <c r="EE6" t="n">
         <v>35490.310812</v>
       </c>
-      <c r="EF6">
+      <c r="EF6" t="n">
         <v>34573.624844</v>
       </c>
-      <c r="EG6">
+      <c r="EG6" t="n">
         <v>32914.82093</v>
       </c>
-      <c r="EH6">
+      <c r="EH6" t="n">
         <v>32628.074063</v>
       </c>
-      <c r="EI6">
+      <c r="EI6" t="n">
         <v>35363.367967</v>
       </c>
-      <c r="EJ6">
+      <c r="EJ6" t="n">
         <v>35632.672996</v>
       </c>
-      <c r="EK6">
+      <c r="EK6" t="n">
         <v>33446.587506</v>
       </c>
-      <c r="EL6">
+      <c r="EL6" t="n">
         <v>31243.93594</v>
       </c>
-      <c r="EM6">
+      <c r="EM6" t="n">
         <v>33979.378666</v>
       </c>
-      <c r="EN6">
+      <c r="EN6" t="n">
         <v>34806.32958</v>
       </c>
-      <c r="EO6">
+      <c r="EO6" t="n">
         <v>33689.790865</v>
       </c>
-      <c r="EP6">
+      <c r="EP6" t="n">
         <v>31650.782119</v>
       </c>
-      <c r="EQ6">
+      <c r="EQ6" t="n">
         <v>34354.568468</v>
       </c>
-      <c r="ER6">
+      <c r="ER6" t="n">
         <v>35475.64459</v>
       </c>
-      <c r="ES6">
+      <c r="ES6" t="n">
         <v>34325.293344</v>
       </c>
-      <c r="ET6">
+      <c r="ET6" t="n">
         <v>32308.162162</v>
       </c>
-      <c r="EU6">
+      <c r="EU6" t="n">
         <v>35228.968139</v>
       </c>
-      <c r="EV6">
+      <c r="EV6" t="n">
         <v>36122.391412</v>
       </c>
-      <c r="EW6">
+      <c r="EW6" t="n">
         <v>34555.944468</v>
       </c>
-      <c r="EX6">
+      <c r="EX6" t="n">
         <v>31921.961127</v>
       </c>
-      <c r="EY6">
+      <c r="EY6" t="n">
         <v>33812.670184</v>
       </c>
-      <c r="EZ6">
+      <c r="EZ6" t="n">
         <v>35564.221105</v>
       </c>
-      <c r="FA6">
+      <c r="FA6" t="n">
         <v>34055.674899</v>
       </c>
-      <c r="FB6">
+      <c r="FB6" t="n">
         <v>30806.728381</v>
       </c>
-      <c r="FC6">
+      <c r="FC6" t="n">
         <v>33284.951877</v>
       </c>
-      <c r="FD6">
+      <c r="FD6" t="n">
         <v>35051.417373</v>
       </c>
-      <c r="FE6">
+      <c r="FE6" t="n">
         <v>34476.211611</v>
       </c>
-      <c r="FF6">
+      <c r="FF6" t="n">
         <v>31187.147801</v>
       </c>
-      <c r="FG6">
+      <c r="FG6" t="n">
         <v>33872.888871</v>
       </c>
-      <c r="FH6">
+      <c r="FH6" t="n">
         <v>35163.955619</v>
       </c>
-      <c r="FI6">
+      <c r="FI6" t="n">
         <v>34548.688102</v>
       </c>
-      <c r="FJ6">
+      <c r="FJ6" t="n">
         <v>30361.309676</v>
       </c>
-      <c r="FK6" t="s">
-        <v>179</v>
-      </c>
-      <c r="FL6" t="s">
-        <v>179</v>
-      </c>
-      <c r="FM6" t="s">
-        <v>179</v>
+      <c r="FK6" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL6" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM6" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:169">
-      <c r="A7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BN7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Other agricultural crops, nec</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="inlineStr"/>
+      <c r="BM7" t="inlineStr"/>
+      <c r="BN7" t="n">
         <v>23479.14191</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" t="n">
         <v>23396.16208</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" t="n">
         <v>17720.34195</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" t="n">
         <v>26265.18958</v>
       </c>
-      <c r="BR7">
+      <c r="BR7" t="n">
         <v>18761.64301</v>
       </c>
-      <c r="BS7">
+      <c r="BS7" t="n">
         <v>17497.99147</v>
       </c>
-      <c r="BT7">
+      <c r="BT7" t="n">
         <v>13375.85622</v>
       </c>
-      <c r="BU7">
+      <c r="BU7" t="n">
         <v>20767.7751</v>
       </c>
-      <c r="BV7">
+      <c r="BV7" t="n">
         <v>18188.04518</v>
       </c>
-      <c r="BW7">
+      <c r="BW7" t="n">
         <v>17097.66413</v>
       </c>
-      <c r="BX7">
+      <c r="BX7" t="n">
         <v>13916.78944</v>
       </c>
-      <c r="BY7">
+      <c r="BY7" t="n">
         <v>22898.76353</v>
       </c>
-      <c r="BZ7">
+      <c r="BZ7" t="n">
         <v>16601.462593</v>
       </c>
-      <c r="CA7">
+      <c r="CA7" t="n">
         <v>14710.545538</v>
       </c>
-      <c r="CB7">
+      <c r="CB7" t="n">
         <v>13018.904752</v>
       </c>
-      <c r="CC7">
+      <c r="CC7" t="n">
         <v>20857.095389</v>
       </c>
-      <c r="CD7">
+      <c r="CD7" t="n">
         <v>18736.557958</v>
       </c>
-      <c r="CE7">
+      <c r="CE7" t="n">
         <v>16934.819757</v>
       </c>
-      <c r="CF7">
+      <c r="CF7" t="n">
         <v>15415.743033</v>
       </c>
-      <c r="CG7">
+      <c r="CG7" t="n">
         <v>22606.473996</v>
       </c>
-      <c r="CH7">
+      <c r="CH7" t="n">
         <v>20958.224569</v>
       </c>
-      <c r="CI7">
+      <c r="CI7" t="n">
         <v>17146.290672</v>
       </c>
-      <c r="CJ7">
+      <c r="CJ7" t="n">
         <v>15906.120088</v>
       </c>
-      <c r="CK7">
+      <c r="CK7" t="n">
         <v>22297.579801</v>
       </c>
-      <c r="CL7">
+      <c r="CL7" t="n">
         <v>21619.066085</v>
       </c>
-      <c r="CM7">
+      <c r="CM7" t="n">
         <v>18104.712477</v>
       </c>
-      <c r="CN7">
+      <c r="CN7" t="n">
         <v>16014.262402</v>
       </c>
-      <c r="CO7">
+      <c r="CO7" t="n">
         <v>23163.385771</v>
       </c>
-      <c r="CP7">
+      <c r="CP7" t="n">
         <v>21722.537893</v>
       </c>
-      <c r="CQ7">
+      <c r="CQ7" t="n">
         <v>17971.968146</v>
       </c>
-      <c r="CR7">
+      <c r="CR7" t="n">
         <v>16499.121571</v>
       </c>
-      <c r="CS7">
+      <c r="CS7" t="n">
         <v>24157.092704</v>
       </c>
-      <c r="CT7">
+      <c r="CT7" t="n">
         <v>21177.567931</v>
       </c>
-      <c r="CU7">
+      <c r="CU7" t="n">
         <v>18579.570568</v>
       </c>
-      <c r="CV7">
+      <c r="CV7" t="n">
         <v>16994.942059</v>
       </c>
-      <c r="CW7">
+      <c r="CW7" t="n">
         <v>25051.151442</v>
       </c>
-      <c r="CX7">
+      <c r="CX7" t="n">
         <v>21254.199831</v>
       </c>
-      <c r="CY7">
+      <c r="CY7" t="n">
         <v>18327.932888</v>
       </c>
-      <c r="CZ7">
+      <c r="CZ7" t="n">
         <v>16954.188734</v>
       </c>
-      <c r="DA7">
+      <c r="DA7" t="n">
         <v>24726.538768</v>
       </c>
-      <c r="DB7">
+      <c r="DB7" t="n">
         <v>21726.507171</v>
       </c>
-      <c r="DC7">
+      <c r="DC7" t="n">
         <v>20141.596674</v>
       </c>
-      <c r="DD7">
+      <c r="DD7" t="n">
         <v>17633.640692</v>
       </c>
-      <c r="DE7">
+      <c r="DE7" t="n">
         <v>26666.318525</v>
       </c>
-      <c r="DF7">
+      <c r="DF7" t="n">
         <v>21510.833567</v>
       </c>
-      <c r="DG7">
+      <c r="DG7" t="n">
         <v>18765.883461</v>
       </c>
-      <c r="DH7">
+      <c r="DH7" t="n">
         <v>17715.714631</v>
       </c>
-      <c r="DI7">
+      <c r="DI7" t="n">
         <v>27715.160943</v>
       </c>
-      <c r="DJ7">
+      <c r="DJ7" t="n">
         <v>21757.148488</v>
       </c>
-      <c r="DK7">
+      <c r="DK7" t="n">
         <v>18647.500432</v>
       </c>
-      <c r="DL7">
+      <c r="DL7" t="n">
         <v>17736.917479</v>
       </c>
-      <c r="DM7">
+      <c r="DM7" t="n">
         <v>27749.612223</v>
       </c>
-      <c r="DN7">
+      <c r="DN7" t="n">
         <v>22833.503055</v>
       </c>
-      <c r="DO7">
+      <c r="DO7" t="n">
         <v>19769.987431</v>
       </c>
-      <c r="DP7">
+      <c r="DP7" t="n">
         <v>19046.275833</v>
       </c>
-      <c r="DQ7">
+      <c r="DQ7" t="n">
         <v>27214.19368</v>
       </c>
-      <c r="DR7">
+      <c r="DR7" t="n">
         <v>22442.370297</v>
       </c>
-      <c r="DS7">
+      <c r="DS7" t="n">
         <v>20161.425299</v>
       </c>
-      <c r="DT7">
+      <c r="DT7" t="n">
         <v>17812.322717</v>
       </c>
-      <c r="DU7">
+      <c r="DU7" t="n">
         <v>26195.576464</v>
       </c>
-      <c r="DV7">
+      <c r="DV7" t="n">
         <v>23075.010448</v>
       </c>
-      <c r="DW7">
+      <c r="DW7" t="n">
         <v>20634.689908</v>
       </c>
-      <c r="DX7">
+      <c r="DX7" t="n">
         <v>18013.847623</v>
       </c>
-      <c r="DY7">
+      <c r="DY7" t="n">
         <v>26833.191911</v>
       </c>
-      <c r="DZ7">
+      <c r="DZ7" t="n">
         <v>24165.132129</v>
       </c>
-      <c r="EA7">
+      <c r="EA7" t="n">
         <v>21445.847624</v>
       </c>
-      <c r="EB7">
+      <c r="EB7" t="n">
         <v>18046.684428</v>
       </c>
-      <c r="EC7">
+      <c r="EC7" t="n">
         <v>25655.547445</v>
       </c>
-      <c r="ED7">
+      <c r="ED7" t="n">
         <v>24188.810116</v>
       </c>
-      <c r="EE7">
+      <c r="EE7" t="n">
         <v>23291.874066</v>
       </c>
-      <c r="EF7">
+      <c r="EF7" t="n">
         <v>17371.369416</v>
       </c>
-      <c r="EG7">
+      <c r="EG7" t="n">
         <v>25714.379352</v>
       </c>
-      <c r="EH7">
+      <c r="EH7" t="n">
         <v>25361.304521</v>
       </c>
-      <c r="EI7">
+      <c r="EI7" t="n">
         <v>21862.158112</v>
       </c>
-      <c r="EJ7">
+      <c r="EJ7" t="n">
         <v>18164.477191</v>
       </c>
-      <c r="EK7">
+      <c r="EK7" t="n">
         <v>26498.06236</v>
       </c>
-      <c r="EL7">
+      <c r="EL7" t="n">
         <v>25060.611199</v>
       </c>
-      <c r="EM7">
+      <c r="EM7" t="n">
         <v>22047.33428</v>
       </c>
-      <c r="EN7">
+      <c r="EN7" t="n">
         <v>18395.245241</v>
       </c>
-      <c r="EO7">
+      <c r="EO7" t="n">
         <v>27304.463989</v>
       </c>
-      <c r="EP7">
+      <c r="EP7" t="n">
         <v>25524.293877</v>
       </c>
-      <c r="EQ7">
+      <c r="EQ7" t="n">
         <v>21851.621451</v>
       </c>
-      <c r="ER7">
+      <c r="ER7" t="n">
         <v>17439.933232</v>
       </c>
-      <c r="ES7">
+      <c r="ES7" t="n">
         <v>25823.025462</v>
       </c>
-      <c r="ET7">
+      <c r="ET7" t="n">
         <v>25036.774725</v>
       </c>
-      <c r="EU7">
+      <c r="EU7" t="n">
         <v>21611.128025</v>
       </c>
-      <c r="EV7">
+      <c r="EV7" t="n">
         <v>17758.358214</v>
       </c>
-      <c r="EW7">
+      <c r="EW7" t="n">
         <v>26435.436111</v>
       </c>
-      <c r="EX7">
+      <c r="EX7" t="n">
         <v>25533.550552</v>
       </c>
-      <c r="EY7">
+      <c r="EY7" t="n">
         <v>24208.866248</v>
       </c>
-      <c r="EZ7">
+      <c r="EZ7" t="n">
         <v>18085.258509</v>
       </c>
-      <c r="FA7">
+      <c r="FA7" t="n">
         <v>26681.855211</v>
       </c>
-      <c r="FB7">
+      <c r="FB7" t="n">
         <v>25380.010818</v>
       </c>
-      <c r="FC7">
+      <c r="FC7" t="n">
         <v>23863.464564</v>
       </c>
-      <c r="FD7">
+      <c r="FD7" t="n">
         <v>18085.842847</v>
       </c>
-      <c r="FE7">
+      <c r="FE7" t="n">
         <v>25939.941144</v>
       </c>
-      <c r="FF7">
+      <c r="FF7" t="n">
         <v>24335.154189</v>
       </c>
-      <c r="FG7">
+      <c r="FG7" t="n">
         <v>24985.7588</v>
       </c>
-      <c r="FH7">
+      <c r="FH7" t="n">
         <v>17732.698782</v>
       </c>
-      <c r="FI7">
+      <c r="FI7" t="n">
         <v>25763.089609</v>
       </c>
-      <c r="FJ7">
+      <c r="FJ7" t="n">
         <v>24666.540185</v>
       </c>
-      <c r="FK7" t="s">
-        <v>179</v>
-      </c>
-      <c r="FL7" t="s">
-        <v>179</v>
-      </c>
-      <c r="FM7" t="s">
-        <v>179</v>
+      <c r="FK7" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL7" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM7" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="8" spans="1:169">
-      <c r="A8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="BN8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Livestock</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="inlineStr"/>
+      <c r="BM8" t="inlineStr"/>
+      <c r="BN8" t="n">
         <v>36134.36729</v>
       </c>
-      <c r="BO8">
+      <c r="BO8" t="n">
         <v>36046.58057</v>
       </c>
-      <c r="BP8">
+      <c r="BP8" t="n">
         <v>36127.61447</v>
       </c>
-      <c r="BQ8">
+      <c r="BQ8" t="n">
         <v>41718.95368</v>
       </c>
-      <c r="BR8">
+      <c r="BR8" t="n">
         <v>37904.20272</v>
       </c>
-      <c r="BS8">
+      <c r="BS8" t="n">
         <v>38614.54645</v>
       </c>
-      <c r="BT8">
+      <c r="BT8" t="n">
         <v>38069.88838</v>
       </c>
-      <c r="BU8">
+      <c r="BU8" t="n">
         <v>43847.44351</v>
       </c>
-      <c r="BV8">
+      <c r="BV8" t="n">
         <v>39512.67088</v>
       </c>
-      <c r="BW8">
+      <c r="BW8" t="n">
         <v>40134.42893</v>
       </c>
-      <c r="BX8">
+      <c r="BX8" t="n">
         <v>39470.08964</v>
       </c>
-      <c r="BY8">
+      <c r="BY8" t="n">
         <v>46059.46355</v>
       </c>
-      <c r="BZ8">
+      <c r="BZ8" t="n">
         <v>31845.642232</v>
       </c>
-      <c r="CA8">
+      <c r="CA8" t="n">
         <v>31865.811167</v>
       </c>
-      <c r="CB8">
+      <c r="CB8" t="n">
         <v>32585.352129</v>
       </c>
-      <c r="CC8">
+      <c r="CC8" t="n">
         <v>38558.687797</v>
       </c>
-      <c r="CD8">
+      <c r="CD8" t="n">
         <v>33001.148279</v>
       </c>
-      <c r="CE8">
+      <c r="CE8" t="n">
         <v>33176.347276</v>
       </c>
-      <c r="CF8">
+      <c r="CF8" t="n">
         <v>33800.313407</v>
       </c>
-      <c r="CG8">
+      <c r="CG8" t="n">
         <v>39878.752316</v>
       </c>
-      <c r="CH8">
+      <c r="CH8" t="n">
         <v>33576.364592</v>
       </c>
-      <c r="CI8">
+      <c r="CI8" t="n">
         <v>34586.585968</v>
       </c>
-      <c r="CJ8">
+      <c r="CJ8" t="n">
         <v>36288.960666</v>
       </c>
-      <c r="CK8">
+      <c r="CK8" t="n">
         <v>41731.177406</v>
       </c>
-      <c r="CL8">
+      <c r="CL8" t="n">
         <v>35916.586996</v>
       </c>
-      <c r="CM8">
+      <c r="CM8" t="n">
         <v>36294.392898</v>
       </c>
-      <c r="CN8">
+      <c r="CN8" t="n">
         <v>36801.900826</v>
       </c>
-      <c r="CO8">
+      <c r="CO8" t="n">
         <v>43708.523465</v>
       </c>
-      <c r="CP8">
+      <c r="CP8" t="n">
         <v>37403.877898</v>
       </c>
-      <c r="CQ8">
+      <c r="CQ8" t="n">
         <v>37351.634011</v>
       </c>
-      <c r="CR8">
+      <c r="CR8" t="n">
         <v>36251.012792</v>
       </c>
-      <c r="CS8">
+      <c r="CS8" t="n">
         <v>43531.045494</v>
       </c>
-      <c r="CT8">
+      <c r="CT8" t="n">
         <v>38459.721459</v>
       </c>
-      <c r="CU8">
+      <c r="CU8" t="n">
         <v>38986.57808</v>
       </c>
-      <c r="CV8">
+      <c r="CV8" t="n">
         <v>38778.122886</v>
       </c>
-      <c r="CW8">
+      <c r="CW8" t="n">
         <v>46239.239465</v>
       </c>
-      <c r="CX8">
+      <c r="CX8" t="n">
         <v>39945.624029</v>
       </c>
-      <c r="CY8">
+      <c r="CY8" t="n">
         <v>40484.342954</v>
       </c>
-      <c r="CZ8">
+      <c r="CZ8" t="n">
         <v>39247.106982</v>
       </c>
-      <c r="DA8">
+      <c r="DA8" t="n">
         <v>46427.879506</v>
       </c>
-      <c r="DB8">
+      <c r="DB8" t="n">
         <v>41631.472995</v>
       </c>
-      <c r="DC8">
+      <c r="DC8" t="n">
         <v>42525.011622</v>
       </c>
-      <c r="DD8">
+      <c r="DD8" t="n">
         <v>40922.009202</v>
       </c>
-      <c r="DE8">
+      <c r="DE8" t="n">
         <v>49291.163384</v>
       </c>
-      <c r="DF8">
+      <c r="DF8" t="n">
         <v>41369.505485</v>
       </c>
-      <c r="DG8">
+      <c r="DG8" t="n">
         <v>40457.42536</v>
       </c>
-      <c r="DH8">
+      <c r="DH8" t="n">
         <v>40874.592298</v>
       </c>
-      <c r="DI8">
+      <c r="DI8" t="n">
         <v>49299.704674</v>
       </c>
-      <c r="DJ8">
+      <c r="DJ8" t="n">
         <v>40868.144092</v>
       </c>
-      <c r="DK8">
+      <c r="DK8" t="n">
         <v>41425.193426</v>
       </c>
-      <c r="DL8">
+      <c r="DL8" t="n">
         <v>39314.02351</v>
       </c>
-      <c r="DM8">
+      <c r="DM8" t="n">
         <v>49278.388143</v>
       </c>
-      <c r="DN8">
+      <c r="DN8" t="n">
         <v>42503.204649</v>
       </c>
-      <c r="DO8">
+      <c r="DO8" t="n">
         <v>44786.061282</v>
       </c>
-      <c r="DP8">
+      <c r="DP8" t="n">
         <v>42223.71238</v>
       </c>
-      <c r="DQ8">
+      <c r="DQ8" t="n">
         <v>50237.298536</v>
       </c>
-      <c r="DR8">
+      <c r="DR8" t="n">
         <v>43675.590676</v>
       </c>
-      <c r="DS8">
+      <c r="DS8" t="n">
         <v>45600.837714</v>
       </c>
-      <c r="DT8">
+      <c r="DT8" t="n">
         <v>43409.263753</v>
       </c>
-      <c r="DU8">
+      <c r="DU8" t="n">
         <v>51805.739611</v>
       </c>
-      <c r="DV8">
+      <c r="DV8" t="n">
         <v>44553.416788</v>
       </c>
-      <c r="DW8">
+      <c r="DW8" t="n">
         <v>44539.797871</v>
       </c>
-      <c r="DX8">
+      <c r="DX8" t="n">
         <v>44321.126618</v>
       </c>
-      <c r="DY8">
+      <c r="DY8" t="n">
         <v>53955.552954</v>
       </c>
-      <c r="DZ8">
+      <c r="DZ8" t="n">
         <v>47708.950089</v>
       </c>
-      <c r="EA8">
+      <c r="EA8" t="n">
         <v>50175.786321</v>
       </c>
-      <c r="EB8">
+      <c r="EB8" t="n">
         <v>48572.415528</v>
       </c>
-      <c r="EC8">
+      <c r="EC8" t="n">
         <v>58120.813136</v>
       </c>
-      <c r="ED8">
+      <c r="ED8" t="n">
         <v>49247.777414</v>
       </c>
-      <c r="EE8">
+      <c r="EE8" t="n">
         <v>50179.41466</v>
       </c>
-      <c r="EF8">
+      <c r="EF8" t="n">
         <v>48280.957706</v>
       </c>
-      <c r="EG8">
+      <c r="EG8" t="n">
         <v>57367.87621</v>
       </c>
-      <c r="EH8">
+      <c r="EH8" t="n">
         <v>50492.471543</v>
       </c>
-      <c r="EI8">
+      <c r="EI8" t="n">
         <v>52785.711114</v>
       </c>
-      <c r="EJ8">
+      <c r="EJ8" t="n">
         <v>49829.990284</v>
       </c>
-      <c r="EK8">
+      <c r="EK8" t="n">
         <v>59345.767609</v>
       </c>
-      <c r="EL8">
+      <c r="EL8" t="n">
         <v>52010.587354</v>
       </c>
-      <c r="EM8">
+      <c r="EM8" t="n">
         <v>55064.909309</v>
       </c>
-      <c r="EN8">
+      <c r="EN8" t="n">
         <v>50892.061387</v>
       </c>
-      <c r="EO8">
+      <c r="EO8" t="n">
         <v>60777.653336</v>
       </c>
-      <c r="EP8">
+      <c r="EP8" t="n">
         <v>54188.826315</v>
       </c>
-      <c r="EQ8">
+      <c r="EQ8" t="n">
         <v>55508.655145</v>
       </c>
-      <c r="ER8">
+      <c r="ER8" t="n">
         <v>52746.14699</v>
       </c>
-      <c r="ES8">
+      <c r="ES8" t="n">
         <v>63782.229061</v>
       </c>
-      <c r="ET8">
+      <c r="ET8" t="n">
         <v>57105.963863</v>
       </c>
-      <c r="EU8">
+      <c r="EU8" t="n">
         <v>57257.981664</v>
       </c>
-      <c r="EV8">
+      <c r="EV8" t="n">
         <v>54671.307724</v>
       </c>
-      <c r="EW8">
+      <c r="EW8" t="n">
         <v>65468.355739</v>
       </c>
-      <c r="EX8">
+      <c r="EX8" t="n">
         <v>58134.192058</v>
       </c>
-      <c r="EY8">
+      <c r="EY8" t="n">
         <v>59156.139354</v>
       </c>
-      <c r="EZ8">
+      <c r="EZ8" t="n">
         <v>55466.200468</v>
       </c>
-      <c r="FA8">
+      <c r="FA8" t="n">
         <v>59777.840066</v>
       </c>
-      <c r="FB8">
+      <c r="FB8" t="n">
         <v>59010.04329</v>
       </c>
-      <c r="FC8">
+      <c r="FC8" t="n">
         <v>54289.854396</v>
       </c>
-      <c r="FD8">
+      <c r="FD8" t="n">
         <v>51171.589362</v>
       </c>
-      <c r="FE8">
+      <c r="FE8" t="n">
         <v>52023.732921</v>
       </c>
-      <c r="FF8">
+      <c r="FF8" t="n">
         <v>45184.233409</v>
       </c>
-      <c r="FG8">
+      <c r="FG8" t="n">
         <v>43728.038641</v>
       </c>
-      <c r="FH8">
+      <c r="FH8" t="n">
         <v>43122.065417</v>
       </c>
-      <c r="FI8">
+      <c r="FI8" t="n">
         <v>46994.802932</v>
       </c>
-      <c r="FJ8">
+      <c r="FJ8" t="n">
         <v>44691.459155</v>
       </c>
-      <c r="FK8" t="s">
-        <v>179</v>
-      </c>
-      <c r="FL8" t="s">
-        <v>179</v>
-      </c>
-      <c r="FM8" t="s">
-        <v>179</v>
+      <c r="FK8" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL8" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM8" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="9" spans="1:169">
-      <c r="A9" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="BN9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Poultry and egg production</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr"/>
+      <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="n">
         <v>22380.59698</v>
       </c>
-      <c r="BO9">
+      <c r="BO9" t="n">
         <v>18574.49586</v>
       </c>
-      <c r="BP9">
+      <c r="BP9" t="n">
         <v>19369.1267</v>
       </c>
-      <c r="BQ9">
+      <c r="BQ9" t="n">
         <v>26714.94701</v>
       </c>
-      <c r="BR9">
+      <c r="BR9" t="n">
         <v>23422.19096</v>
       </c>
-      <c r="BS9">
+      <c r="BS9" t="n">
         <v>19316.42513</v>
       </c>
-      <c r="BT9">
+      <c r="BT9" t="n">
         <v>18553.44562</v>
       </c>
-      <c r="BU9">
+      <c r="BU9" t="n">
         <v>25011.39402</v>
       </c>
-      <c r="BV9">
+      <c r="BV9" t="n">
         <v>22387.31789</v>
       </c>
-      <c r="BW9">
+      <c r="BW9" t="n">
         <v>18903.66638</v>
       </c>
-      <c r="BX9">
+      <c r="BX9" t="n">
         <v>19152.9437</v>
       </c>
-      <c r="BY9">
+      <c r="BY9" t="n">
         <v>27039.87675</v>
       </c>
-      <c r="BZ9">
+      <c r="BZ9" t="n">
         <v>20014.291675</v>
       </c>
-      <c r="CA9">
+      <c r="CA9" t="n">
         <v>16848.225869</v>
       </c>
-      <c r="CB9">
+      <c r="CB9" t="n">
         <v>17667.749401</v>
       </c>
-      <c r="CC9">
+      <c r="CC9" t="n">
         <v>24530.916141</v>
       </c>
-      <c r="CD9">
+      <c r="CD9" t="n">
         <v>21252.025009</v>
       </c>
-      <c r="CE9">
+      <c r="CE9" t="n">
         <v>17679.139019</v>
       </c>
-      <c r="CF9">
+      <c r="CF9" t="n">
         <v>19370.962522</v>
       </c>
-      <c r="CG9">
+      <c r="CG9" t="n">
         <v>27359.461149</v>
       </c>
-      <c r="CH9">
+      <c r="CH9" t="n">
         <v>21687.352098</v>
       </c>
-      <c r="CI9">
+      <c r="CI9" t="n">
         <v>18605.234808</v>
       </c>
-      <c r="CJ9">
+      <c r="CJ9" t="n">
         <v>21815.896765</v>
       </c>
-      <c r="CK9">
+      <c r="CK9" t="n">
         <v>29674.753336</v>
       </c>
-      <c r="CL9">
+      <c r="CL9" t="n">
         <v>23474.005908</v>
       </c>
-      <c r="CM9">
+      <c r="CM9" t="n">
         <v>19455.039634</v>
       </c>
-      <c r="CN9">
+      <c r="CN9" t="n">
         <v>21745.613676</v>
       </c>
-      <c r="CO9">
+      <c r="CO9" t="n">
         <v>29202.909669</v>
       </c>
-      <c r="CP9">
+      <c r="CP9" t="n">
         <v>23890.994929</v>
       </c>
-      <c r="CQ9">
+      <c r="CQ9" t="n">
         <v>19511.166972</v>
       </c>
-      <c r="CR9">
+      <c r="CR9" t="n">
         <v>22980.918101</v>
       </c>
-      <c r="CS9">
+      <c r="CS9" t="n">
         <v>31062.087813</v>
       </c>
-      <c r="CT9">
+      <c r="CT9" t="n">
         <v>25515.878053</v>
       </c>
-      <c r="CU9">
+      <c r="CU9" t="n">
         <v>20112.025455</v>
       </c>
-      <c r="CV9">
+      <c r="CV9" t="n">
         <v>22489.620982</v>
       </c>
-      <c r="CW9">
+      <c r="CW9" t="n">
         <v>30824.102818</v>
       </c>
-      <c r="CX9">
+      <c r="CX9" t="n">
         <v>25391.711813</v>
       </c>
-      <c r="CY9">
+      <c r="CY9" t="n">
         <v>21040.706214</v>
       </c>
-      <c r="CZ9">
+      <c r="CZ9" t="n">
         <v>23411.458229</v>
       </c>
-      <c r="DA9">
+      <c r="DA9" t="n">
         <v>30835.760877</v>
       </c>
-      <c r="DB9">
+      <c r="DB9" t="n">
         <v>26564.6838</v>
       </c>
-      <c r="DC9">
+      <c r="DC9" t="n">
         <v>20939.188641</v>
       </c>
-      <c r="DD9">
+      <c r="DD9" t="n">
         <v>23741.463482</v>
       </c>
-      <c r="DE9">
+      <c r="DE9" t="n">
         <v>31581.330372</v>
       </c>
-      <c r="DF9">
+      <c r="DF9" t="n">
         <v>28307.814138</v>
       </c>
-      <c r="DG9">
+      <c r="DG9" t="n">
         <v>22077.614564</v>
       </c>
-      <c r="DH9">
+      <c r="DH9" t="n">
         <v>24314.006412</v>
       </c>
-      <c r="DI9">
+      <c r="DI9" t="n">
         <v>32497.281779</v>
       </c>
-      <c r="DJ9">
+      <c r="DJ9" t="n">
         <v>28273.633275</v>
       </c>
-      <c r="DK9">
+      <c r="DK9" t="n">
         <v>22908.890255</v>
       </c>
-      <c r="DL9">
+      <c r="DL9" t="n">
         <v>23511.679292</v>
       </c>
-      <c r="DM9">
+      <c r="DM9" t="n">
         <v>32429.323471</v>
       </c>
-      <c r="DN9">
+      <c r="DN9" t="n">
         <v>30632.231321</v>
       </c>
-      <c r="DO9">
+      <c r="DO9" t="n">
         <v>25618.374232</v>
       </c>
-      <c r="DP9">
+      <c r="DP9" t="n">
         <v>27663.364043</v>
       </c>
-      <c r="DQ9">
+      <c r="DQ9" t="n">
         <v>35349.892173</v>
       </c>
-      <c r="DR9">
+      <c r="DR9" t="n">
         <v>32151.227777</v>
       </c>
-      <c r="DS9">
+      <c r="DS9" t="n">
         <v>26376.910594</v>
       </c>
-      <c r="DT9">
+      <c r="DT9" t="n">
         <v>28798.846766</v>
       </c>
-      <c r="DU9">
+      <c r="DU9" t="n">
         <v>36948.971654</v>
       </c>
-      <c r="DV9">
+      <c r="DV9" t="n">
         <v>33907.793584</v>
       </c>
-      <c r="DW9">
+      <c r="DW9" t="n">
         <v>27133.473205</v>
       </c>
-      <c r="DX9">
+      <c r="DX9" t="n">
         <v>29393.747042</v>
       </c>
-      <c r="DY9">
+      <c r="DY9" t="n">
         <v>38503.034182</v>
       </c>
-      <c r="DZ9">
+      <c r="DZ9" t="n">
         <v>35913.554935</v>
       </c>
-      <c r="EA9">
+      <c r="EA9" t="n">
         <v>29801.737671</v>
       </c>
-      <c r="EB9">
+      <c r="EB9" t="n">
         <v>31701.003843</v>
       </c>
-      <c r="EC9">
+      <c r="EC9" t="n">
         <v>41118.200717</v>
       </c>
-      <c r="ED9">
+      <c r="ED9" t="n">
         <v>36572.761388</v>
       </c>
-      <c r="EE9">
+      <c r="EE9" t="n">
         <v>29668.537159</v>
       </c>
-      <c r="EF9">
+      <c r="EF9" t="n">
         <v>30261.292283</v>
       </c>
-      <c r="EG9">
+      <c r="EG9" t="n">
         <v>42343.887825</v>
       </c>
-      <c r="EH9">
+      <c r="EH9" t="n">
         <v>39332.222944</v>
       </c>
-      <c r="EI9">
+      <c r="EI9" t="n">
         <v>32068.878703</v>
       </c>
-      <c r="EJ9">
+      <c r="EJ9" t="n">
         <v>34080.932059</v>
       </c>
-      <c r="EK9">
+      <c r="EK9" t="n">
         <v>45490.353113</v>
       </c>
-      <c r="EL9">
+      <c r="EL9" t="n">
         <v>40215.847811</v>
       </c>
-      <c r="EM9">
+      <c r="EM9" t="n">
         <v>32641.008773</v>
       </c>
-      <c r="EN9">
+      <c r="EN9" t="n">
         <v>34943.230987</v>
       </c>
-      <c r="EO9">
+      <c r="EO9" t="n">
         <v>45881.275216</v>
       </c>
-      <c r="EP9">
+      <c r="EP9" t="n">
         <v>41174.969302</v>
       </c>
-      <c r="EQ9">
+      <c r="EQ9" t="n">
         <v>35609.708582</v>
       </c>
-      <c r="ER9">
+      <c r="ER9" t="n">
         <v>36378.344477</v>
       </c>
-      <c r="ES9">
+      <c r="ES9" t="n">
         <v>48269.744806</v>
       </c>
-      <c r="ET9">
+      <c r="ET9" t="n">
         <v>43582.285733</v>
       </c>
-      <c r="EU9">
+      <c r="EU9" t="n">
         <v>36984.747655</v>
       </c>
-      <c r="EV9">
+      <c r="EV9" t="n">
         <v>38087.658009</v>
       </c>
-      <c r="EW9">
+      <c r="EW9" t="n">
         <v>51343.842311</v>
       </c>
-      <c r="EX9">
+      <c r="EX9" t="n">
         <v>45833.183501</v>
       </c>
-      <c r="EY9">
+      <c r="EY9" t="n">
         <v>38522.300148</v>
       </c>
-      <c r="EZ9">
+      <c r="EZ9" t="n">
         <v>41335.090631</v>
       </c>
-      <c r="FA9">
+      <c r="FA9" t="n">
         <v>54184.631735</v>
       </c>
-      <c r="FB9">
+      <c r="FB9" t="n">
         <v>47432.044681</v>
       </c>
-      <c r="FC9">
+      <c r="FC9" t="n">
         <v>36684.864773</v>
       </c>
-      <c r="FD9">
+      <c r="FD9" t="n">
         <v>39863.957901</v>
       </c>
-      <c r="FE9">
+      <c r="FE9" t="n">
         <v>51525.892999</v>
       </c>
-      <c r="FF9">
+      <c r="FF9" t="n">
         <v>43891.748697</v>
       </c>
-      <c r="FG9">
+      <c r="FG9" t="n">
         <v>37648.563388</v>
       </c>
-      <c r="FH9">
+      <c r="FH9" t="n">
         <v>40469.75303</v>
       </c>
-      <c r="FI9">
+      <c r="FI9" t="n">
         <v>52968.117586</v>
       </c>
-      <c r="FJ9">
+      <c r="FJ9" t="n">
         <v>49311.849965</v>
       </c>
-      <c r="FK9" t="s">
-        <v>179</v>
-      </c>
-      <c r="FL9" t="s">
-        <v>179</v>
-      </c>
-      <c r="FM9" t="s">
-        <v>179</v>
+      <c r="FK9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="10" spans="1:169">
-      <c r="A10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Forestry and logging</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>8908.219376999999</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>6930.501306</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>7227.58342</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>8640.845474</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>7371.880447</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>5858.883682</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>4774.533968</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>7225.461405</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>6448.803879</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>6293.896777</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>5324.135878</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>5948.008317</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>4072.146971</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>3747.478661</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>4435.011552</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>6005.302724</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>5470.55492</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>5816.443381</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>5922.544135</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>7698.670771</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>6900.793095</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>5661.536278</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>5056.761976</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" t="n">
         <v>7995.752885</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" t="n">
         <v>6554.904634</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" t="n">
         <v>4294.958556</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" t="n">
         <v>4233.420118</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" t="n">
         <v>5343.234014</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" t="n">
         <v>5052.517946</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" t="n">
         <v>5041.90787</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" t="n">
         <v>2667.372977</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" t="n">
         <v>6111.403479</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" t="n">
         <v>4379.83916</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" t="n">
         <v>2374.534893</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" t="n">
         <v>1850.397164</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" t="n">
         <v>3146.948389</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" t="n">
         <v>2637.664765</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" t="n">
         <v>2406.36512</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" t="n">
         <v>1587.267292</v>
       </c>
-      <c r="AO10">
+      <c r="AO10" t="n">
         <v>2902.916653</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" t="n">
         <v>2359.680788</v>
       </c>
-      <c r="AQ10">
+      <c r="AQ10" t="n">
         <v>2032.890463</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" t="n">
         <v>1449.336311</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" t="n">
         <v>2408.487135</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" t="n">
         <v>1810.078878</v>
       </c>
-      <c r="AU10">
+      <c r="AU10" t="n">
         <v>1752.78447</v>
       </c>
-      <c r="AV10">
+      <c r="AV10" t="n">
         <v>1075.861654</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" t="n">
         <v>2240.847942</v>
       </c>
-      <c r="AX10">
+      <c r="AX10" t="n">
         <v>1595.755353</v>
       </c>
-      <c r="AY10">
+      <c r="AY10" t="n">
         <v>1392.041904</v>
       </c>
-      <c r="AZ10">
+      <c r="AZ10" t="n">
         <v>810.609767</v>
       </c>
-      <c r="BA10">
+      <c r="BA10" t="n">
         <v>944.2967181</v>
       </c>
-      <c r="BB10">
+      <c r="BB10" t="n">
         <v>1207.42659</v>
       </c>
-      <c r="BC10">
+      <c r="BC10" t="n">
         <v>812.7317821</v>
       </c>
-      <c r="BD10">
+      <c r="BD10" t="n">
         <v>1186.206439</v>
       </c>
-      <c r="BE10">
+      <c r="BE10" t="n">
         <v>1005.835156</v>
       </c>
-      <c r="BF10">
+      <c r="BF10" t="n">
         <v>1188.328454</v>
       </c>
-      <c r="BG10">
+      <c r="BG10" t="n">
         <v>647.2146045</v>
       </c>
-      <c r="BH10">
+      <c r="BH10" t="n">
         <v>766.04745</v>
       </c>
-      <c r="BI10">
+      <c r="BI10" t="n">
         <v>978.2489597</v>
       </c>
-      <c r="BJ10">
+      <c r="BJ10" t="n">
         <v>541.1138496999999</v>
       </c>
-      <c r="BK10">
+      <c r="BK10" t="n">
         <v>532.6257893</v>
       </c>
-      <c r="BL10">
+      <c r="BL10" t="n">
         <v>549.6019101000001</v>
       </c>
-      <c r="BM10">
+      <c r="BM10" t="n">
         <v>693.8989367</v>
       </c>
-      <c r="BN10">
+      <c r="BN10" t="n">
         <v>766.04745</v>
       </c>
-      <c r="BO10">
+      <c r="BO10" t="n">
         <v>978.2489597</v>
       </c>
-      <c r="BP10">
+      <c r="BP10" t="n">
         <v>541.1138496999999</v>
       </c>
-      <c r="BQ10">
+      <c r="BQ10" t="n">
         <v>532.6257893</v>
       </c>
-      <c r="BR10">
+      <c r="BR10" t="n">
         <v>473.4761936</v>
       </c>
-      <c r="BS10">
+      <c r="BS10" t="n">
         <v>590.9511201</v>
       </c>
-      <c r="BT10">
+      <c r="BT10" t="n">
         <v>289.1421164</v>
       </c>
-      <c r="BU10">
+      <c r="BU10" t="n">
         <v>996.6194259</v>
       </c>
-      <c r="BV10">
+      <c r="BV10" t="n">
         <v>549.4454257</v>
       </c>
-      <c r="BW10">
+      <c r="BW10" t="n">
         <v>574.6782571</v>
       </c>
-      <c r="BX10">
+      <c r="BX10" t="n">
         <v>467.4283044</v>
       </c>
-      <c r="BY10">
+      <c r="BY10" t="n">
         <v>1151.268119</v>
       </c>
-      <c r="BZ10">
+      <c r="BZ10" t="n">
         <v>193.086208</v>
       </c>
-      <c r="CA10">
+      <c r="CA10" t="n">
         <v>489.300716</v>
       </c>
-      <c r="CB10">
+      <c r="CB10" t="n">
         <v>713.656775</v>
       </c>
-      <c r="CC10">
+      <c r="CC10" t="n">
         <v>249.310534</v>
       </c>
-      <c r="CD10">
+      <c r="CD10" t="n">
         <v>270.831398</v>
       </c>
-      <c r="CE10">
+      <c r="CE10" t="n">
         <v>300.038128</v>
       </c>
-      <c r="CF10">
+      <c r="CF10" t="n">
         <v>306.555283</v>
       </c>
-      <c r="CG10">
+      <c r="CG10" t="n">
         <v>148.023985</v>
       </c>
-      <c r="CH10">
+      <c r="CH10" t="n">
         <v>187.865349</v>
       </c>
-      <c r="CI10">
+      <c r="CI10" t="n">
         <v>323.976218</v>
       </c>
-      <c r="CJ10">
+      <c r="CJ10" t="n">
         <v>208.352291</v>
       </c>
-      <c r="CK10">
+      <c r="CK10" t="n">
         <v>62.49592</v>
       </c>
-      <c r="CL10">
+      <c r="CL10" t="n">
         <v>185.903296</v>
       </c>
-      <c r="CM10">
+      <c r="CM10" t="n">
         <v>248.537368</v>
       </c>
-      <c r="CN10">
+      <c r="CN10" t="n">
         <v>482.342137</v>
       </c>
-      <c r="CO10">
+      <c r="CO10" t="n">
         <v>135.473727</v>
       </c>
-      <c r="CP10">
+      <c r="CP10" t="n">
         <v>450.511125</v>
       </c>
-      <c r="CQ10">
+      <c r="CQ10" t="n">
         <v>466.727602</v>
       </c>
-      <c r="CR10">
+      <c r="CR10" t="n">
         <v>602.018849</v>
       </c>
-      <c r="CS10">
+      <c r="CS10" t="n">
         <v>153.074822</v>
       </c>
-      <c r="CT10">
+      <c r="CT10" t="n">
         <v>296.937456</v>
       </c>
-      <c r="CU10">
+      <c r="CU10" t="n">
         <v>505.655349</v>
       </c>
-      <c r="CV10">
+      <c r="CV10" t="n">
         <v>668.736924</v>
       </c>
-      <c r="CW10">
+      <c r="CW10" t="n">
         <v>347.94277</v>
       </c>
-      <c r="CX10">
+      <c r="CX10" t="n">
         <v>407.920637</v>
       </c>
-      <c r="CY10">
+      <c r="CY10" t="n">
         <v>862.150475</v>
       </c>
-      <c r="CZ10">
+      <c r="CZ10" t="n">
         <v>661.485554</v>
       </c>
-      <c r="DA10">
+      <c r="DA10" t="n">
         <v>320.908043</v>
       </c>
-      <c r="DB10">
+      <c r="DB10" t="n">
         <v>401.41411</v>
       </c>
-      <c r="DC10">
+      <c r="DC10" t="n">
         <v>547.298665</v>
       </c>
-      <c r="DD10">
+      <c r="DD10" t="n">
         <v>612.78089</v>
       </c>
-      <c r="DE10">
+      <c r="DE10" t="n">
         <v>227.277389</v>
       </c>
-      <c r="DF10">
+      <c r="DF10" t="n">
         <v>398.392976</v>
       </c>
-      <c r="DG10">
+      <c r="DG10" t="n">
         <v>612.261441</v>
       </c>
-      <c r="DH10">
+      <c r="DH10" t="n">
         <v>641.918092</v>
       </c>
-      <c r="DI10">
+      <c r="DI10" t="n">
         <v>247.105674</v>
       </c>
-      <c r="DJ10">
+      <c r="DJ10" t="n">
         <v>356.370025</v>
       </c>
-      <c r="DK10">
+      <c r="DK10" t="n">
         <v>571.93132</v>
       </c>
-      <c r="DL10">
+      <c r="DL10" t="n">
         <v>648.131856</v>
       </c>
-      <c r="DM10">
+      <c r="DM10" t="n">
         <v>372.373691</v>
       </c>
-      <c r="DN10">
+      <c r="DN10" t="n">
         <v>449.98792</v>
       </c>
-      <c r="DO10">
+      <c r="DO10" t="n">
         <v>395.144888</v>
       </c>
-      <c r="DP10">
+      <c r="DP10" t="n">
         <v>357.309931</v>
       </c>
-      <c r="DQ10">
+      <c r="DQ10" t="n">
         <v>196.478004</v>
       </c>
-      <c r="DR10">
+      <c r="DR10" t="n">
         <v>416.80767</v>
       </c>
-      <c r="DS10">
+      <c r="DS10" t="n">
         <v>680.802271</v>
       </c>
-      <c r="DT10">
+      <c r="DT10" t="n">
         <v>681.436974</v>
       </c>
-      <c r="DU10">
+      <c r="DU10" t="n">
         <v>214.565731</v>
       </c>
-      <c r="DV10">
+      <c r="DV10" t="n">
         <v>621.133908</v>
       </c>
-      <c r="DW10">
+      <c r="DW10" t="n">
         <v>649.9666999999999</v>
       </c>
-      <c r="DX10">
+      <c r="DX10" t="n">
         <v>605.586051</v>
       </c>
-      <c r="DY10">
+      <c r="DY10" t="n">
         <v>247.563145</v>
       </c>
-      <c r="DZ10">
+      <c r="DZ10" t="n">
         <v>774.180263</v>
       </c>
-      <c r="EA10">
+      <c r="EA10" t="n">
         <v>889.481175</v>
       </c>
-      <c r="EB10">
+      <c r="EB10" t="n">
         <v>1134.778522</v>
       </c>
-      <c r="EC10">
+      <c r="EC10" t="n">
         <v>289.483991</v>
       </c>
-      <c r="ED10">
+      <c r="ED10" t="n">
         <v>1076.742434</v>
       </c>
-      <c r="EE10">
+      <c r="EE10" t="n">
         <v>1159.139292</v>
       </c>
-      <c r="EF10">
+      <c r="EF10" t="n">
         <v>866.238522</v>
       </c>
-      <c r="EG10">
+      <c r="EG10" t="n">
         <v>187.249796</v>
       </c>
-      <c r="EH10">
+      <c r="EH10" t="n">
         <v>639.238922</v>
       </c>
-      <c r="EI10">
+      <c r="EI10" t="n">
         <v>800.1045350000001</v>
       </c>
-      <c r="EJ10">
+      <c r="EJ10" t="n">
         <v>824.3758340000001</v>
       </c>
-      <c r="EK10">
+      <c r="EK10" t="n">
         <v>223.810085</v>
       </c>
-      <c r="EL10">
+      <c r="EL10" t="n">
         <v>746.786941</v>
       </c>
-      <c r="EM10">
+      <c r="EM10" t="n">
         <v>613.2130969999999</v>
       </c>
-      <c r="EN10">
+      <c r="EN10" t="n">
         <v>788.03661</v>
       </c>
-      <c r="EO10">
+      <c r="EO10" t="n">
         <v>232.262905</v>
       </c>
-      <c r="EP10">
+      <c r="EP10" t="n">
         <v>638.6394299999999</v>
       </c>
-      <c r="EQ10">
+      <c r="EQ10" t="n">
         <v>812.111544</v>
       </c>
-      <c r="ER10">
+      <c r="ER10" t="n">
         <v>680.470447</v>
       </c>
-      <c r="ES10">
+      <c r="ES10" t="n">
         <v>215.070831</v>
       </c>
-      <c r="ET10">
+      <c r="ET10" t="n">
         <v>641.2716</v>
       </c>
-      <c r="EU10">
+      <c r="EU10" t="n">
         <v>965.869958</v>
       </c>
-      <c r="EV10">
+      <c r="EV10" t="n">
         <v>963.20038</v>
       </c>
-      <c r="EW10">
+      <c r="EW10" t="n">
         <v>314.086482</v>
       </c>
-      <c r="EX10">
+      <c r="EX10" t="n">
         <v>707.649939</v>
       </c>
-      <c r="EY10">
+      <c r="EY10" t="n">
         <v>979.768178</v>
       </c>
-      <c r="EZ10">
+      <c r="EZ10" t="n">
         <v>1073.804481</v>
       </c>
-      <c r="FA10">
+      <c r="FA10" t="n">
         <v>266.938466</v>
       </c>
-      <c r="FB10">
+      <c r="FB10" t="n">
         <v>702.617062</v>
       </c>
-      <c r="FC10">
+      <c r="FC10" t="n">
         <v>567.96449</v>
       </c>
-      <c r="FD10">
+      <c r="FD10" t="n">
         <v>1069.592099</v>
       </c>
-      <c r="FE10">
+      <c r="FE10" t="n">
         <v>252.547319</v>
       </c>
-      <c r="FF10">
+      <c r="FF10" t="n">
         <v>728.327496</v>
       </c>
-      <c r="FG10">
+      <c r="FG10" t="n">
         <v>800.618152</v>
       </c>
-      <c r="FH10">
+      <c r="FH10" t="n">
         <v>939.5812570000001</v>
       </c>
-      <c r="FI10">
+      <c r="FI10" t="n">
         <v>222.176165</v>
       </c>
-      <c r="FJ10">
+      <c r="FJ10" t="n">
         <v>744.75735</v>
       </c>
-      <c r="FK10" t="s">
-        <v>179</v>
-      </c>
-      <c r="FL10" t="s">
-        <v>179</v>
-      </c>
-      <c r="FM10" t="s">
-        <v>179</v>
+      <c r="FK10" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL10" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM10" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="11" spans="1:169">
-      <c r="A11" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="BN11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Fishing and aquaculture</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="n">
         <v>35621.6378</v>
       </c>
-      <c r="BO11">
+      <c r="BO11" t="n">
         <v>37195.94237</v>
       </c>
-      <c r="BP11">
+      <c r="BP11" t="n">
         <v>28485.32315</v>
       </c>
-      <c r="BQ11">
+      <c r="BQ11" t="n">
         <v>35537.72816</v>
       </c>
-      <c r="BR11">
+      <c r="BR11" t="n">
         <v>39654.34819</v>
       </c>
-      <c r="BS11">
+      <c r="BS11" t="n">
         <v>40400.34645</v>
       </c>
-      <c r="BT11">
+      <c r="BT11" t="n">
         <v>33985.26793</v>
       </c>
-      <c r="BU11">
+      <c r="BU11" t="n">
         <v>36281.73308</v>
       </c>
-      <c r="BV11">
+      <c r="BV11" t="n">
         <v>38619.22837</v>
       </c>
-      <c r="BW11">
+      <c r="BW11" t="n">
         <v>39275.91144</v>
       </c>
-      <c r="BX11">
+      <c r="BX11" t="n">
         <v>34269.08098</v>
       </c>
-      <c r="BY11">
+      <c r="BY11" t="n">
         <v>37677.56951</v>
       </c>
-      <c r="BZ11">
+      <c r="BZ11" t="n">
         <v>25778.107928</v>
       </c>
-      <c r="CA11">
+      <c r="CA11" t="n">
         <v>27122.952865</v>
       </c>
-      <c r="CB11">
+      <c r="CB11" t="n">
         <v>24783.306456</v>
       </c>
-      <c r="CC11">
+      <c r="CC11" t="n">
         <v>26299.072164</v>
       </c>
-      <c r="CD11">
+      <c r="CD11" t="n">
         <v>26427.947952</v>
       </c>
-      <c r="CE11">
+      <c r="CE11" t="n">
         <v>29007.780408</v>
       </c>
-      <c r="CF11">
+      <c r="CF11" t="n">
         <v>25495.162458</v>
       </c>
-      <c r="CG11">
+      <c r="CG11" t="n">
         <v>28350.643298</v>
       </c>
-      <c r="CH11">
+      <c r="CH11" t="n">
         <v>27001.213568</v>
       </c>
-      <c r="CI11">
+      <c r="CI11" t="n">
         <v>30202.524702</v>
       </c>
-      <c r="CJ11">
+      <c r="CJ11" t="n">
         <v>27423.45358</v>
       </c>
-      <c r="CK11">
+      <c r="CK11" t="n">
         <v>30906.210858</v>
       </c>
-      <c r="CL11">
+      <c r="CL11" t="n">
         <v>28294.786091</v>
       </c>
-      <c r="CM11">
+      <c r="CM11" t="n">
         <v>33085.48902</v>
       </c>
-      <c r="CN11">
+      <c r="CN11" t="n">
         <v>28576.040276</v>
       </c>
-      <c r="CO11">
+      <c r="CO11" t="n">
         <v>37274.909287</v>
       </c>
-      <c r="CP11">
+      <c r="CP11" t="n">
         <v>33483.895541</v>
       </c>
-      <c r="CQ11">
+      <c r="CQ11" t="n">
         <v>35153.188398</v>
       </c>
-      <c r="CR11">
+      <c r="CR11" t="n">
         <v>29632.784278</v>
       </c>
-      <c r="CS11">
+      <c r="CS11" t="n">
         <v>38616.006056</v>
       </c>
-      <c r="CT11">
+      <c r="CT11" t="n">
         <v>34663.638435</v>
       </c>
-      <c r="CU11">
+      <c r="CU11" t="n">
         <v>36391.531134</v>
       </c>
-      <c r="CV11">
+      <c r="CV11" t="n">
         <v>31669.6097</v>
       </c>
-      <c r="CW11">
+      <c r="CW11" t="n">
         <v>42447.747006</v>
       </c>
-      <c r="CX11">
+      <c r="CX11" t="n">
         <v>37739.579682</v>
       </c>
-      <c r="CY11">
+      <c r="CY11" t="n">
         <v>42218.346164</v>
       </c>
-      <c r="CZ11">
+      <c r="CZ11" t="n">
         <v>34281.350842</v>
       </c>
-      <c r="DA11">
+      <c r="DA11" t="n">
         <v>45162.110709</v>
       </c>
-      <c r="DB11">
+      <c r="DB11" t="n">
         <v>43178.00606</v>
       </c>
-      <c r="DC11">
+      <c r="DC11" t="n">
         <v>46899.99229</v>
       </c>
-      <c r="DD11">
+      <c r="DD11" t="n">
         <v>39338.382551</v>
       </c>
-      <c r="DE11">
+      <c r="DE11" t="n">
         <v>48683.280261</v>
       </c>
-      <c r="DF11">
+      <c r="DF11" t="n">
         <v>46336.323782</v>
       </c>
-      <c r="DG11">
+      <c r="DG11" t="n">
         <v>47264.625168</v>
       </c>
-      <c r="DH11">
+      <c r="DH11" t="n">
         <v>41454.111329</v>
       </c>
-      <c r="DI11">
+      <c r="DI11" t="n">
         <v>54673.397079</v>
       </c>
-      <c r="DJ11">
+      <c r="DJ11" t="n">
         <v>48383.643877</v>
       </c>
-      <c r="DK11">
+      <c r="DK11" t="n">
         <v>52072.737504</v>
       </c>
-      <c r="DL11">
+      <c r="DL11" t="n">
         <v>40685.355587</v>
       </c>
-      <c r="DM11">
+      <c r="DM11" t="n">
         <v>56495.892826</v>
       </c>
-      <c r="DN11">
+      <c r="DN11" t="n">
         <v>46003.893005</v>
       </c>
-      <c r="DO11">
+      <c r="DO11" t="n">
         <v>44812.315794</v>
       </c>
-      <c r="DP11">
+      <c r="DP11" t="n">
         <v>50120.768664</v>
       </c>
-      <c r="DQ11">
+      <c r="DQ11" t="n">
         <v>63358.464214</v>
       </c>
-      <c r="DR11">
+      <c r="DR11" t="n">
         <v>45945.260905</v>
       </c>
-      <c r="DS11">
+      <c r="DS11" t="n">
         <v>44658.202432</v>
       </c>
-      <c r="DT11">
+      <c r="DT11" t="n">
         <v>47756.632122</v>
       </c>
-      <c r="DU11">
+      <c r="DU11" t="n">
         <v>61560.467816</v>
       </c>
-      <c r="DV11">
+      <c r="DV11" t="n">
         <v>44665.351969</v>
       </c>
-      <c r="DW11">
+      <c r="DW11" t="n">
         <v>44047.974805</v>
       </c>
-      <c r="DX11">
+      <c r="DX11" t="n">
         <v>48152.860954</v>
       </c>
-      <c r="DY11">
+      <c r="DY11" t="n">
         <v>64126.075936</v>
       </c>
-      <c r="DZ11">
+      <c r="DZ11" t="n">
         <v>48444.672065</v>
       </c>
-      <c r="EA11">
+      <c r="EA11" t="n">
         <v>47051.92973</v>
       </c>
-      <c r="EB11">
+      <c r="EB11" t="n">
         <v>50259.386631</v>
       </c>
-      <c r="EC11">
+      <c r="EC11" t="n">
         <v>63801.791162</v>
       </c>
-      <c r="ED11">
+      <c r="ED11" t="n">
         <v>48679.698052</v>
       </c>
-      <c r="EE11">
+      <c r="EE11" t="n">
         <v>47841.366046</v>
       </c>
-      <c r="EF11">
+      <c r="EF11" t="n">
         <v>51143.097105</v>
       </c>
-      <c r="EG11">
+      <c r="EG11" t="n">
         <v>68607.130639</v>
       </c>
-      <c r="EH11">
+      <c r="EH11" t="n">
         <v>48840.577804</v>
       </c>
-      <c r="EI11">
+      <c r="EI11" t="n">
         <v>49412.892859</v>
       </c>
-      <c r="EJ11">
+      <c r="EJ11" t="n">
         <v>52809.503782</v>
       </c>
-      <c r="EK11">
+      <c r="EK11" t="n">
         <v>68297.58014400001</v>
       </c>
-      <c r="EL11">
+      <c r="EL11" t="n">
         <v>47396.137087</v>
       </c>
-      <c r="EM11">
+      <c r="EM11" t="n">
         <v>48274.280743</v>
       </c>
-      <c r="EN11">
+      <c r="EN11" t="n">
         <v>53038.764039</v>
       </c>
-      <c r="EO11">
+      <c r="EO11" t="n">
         <v>68548.162159</v>
       </c>
-      <c r="EP11">
+      <c r="EP11" t="n">
         <v>49705.802938</v>
       </c>
-      <c r="EQ11">
+      <c r="EQ11" t="n">
         <v>48653.694166</v>
       </c>
-      <c r="ER11">
+      <c r="ER11" t="n">
         <v>53530.735214</v>
       </c>
-      <c r="ES11">
+      <c r="ES11" t="n">
         <v>69992.850636</v>
       </c>
-      <c r="ET11">
+      <c r="ET11" t="n">
         <v>48639.158074</v>
       </c>
-      <c r="EU11">
+      <c r="EU11" t="n">
         <v>48367.247951</v>
       </c>
-      <c r="EV11">
+      <c r="EV11" t="n">
         <v>52588.828427</v>
       </c>
-      <c r="EW11">
+      <c r="EW11" t="n">
         <v>71003.380316</v>
       </c>
-      <c r="EX11">
+      <c r="EX11" t="n">
         <v>49141.71212</v>
       </c>
-      <c r="EY11">
+      <c r="EY11" t="n">
         <v>49973.415184</v>
       </c>
-      <c r="EZ11">
+      <c r="EZ11" t="n">
         <v>53178.751185</v>
       </c>
-      <c r="FA11">
+      <c r="FA11" t="n">
         <v>73846.443869</v>
       </c>
-      <c r="FB11">
+      <c r="FB11" t="n">
         <v>47786.510332</v>
       </c>
-      <c r="FC11">
+      <c r="FC11" t="n">
         <v>50464.632941</v>
       </c>
-      <c r="FD11">
+      <c r="FD11" t="n">
         <v>54304.712854</v>
       </c>
-      <c r="FE11">
+      <c r="FE11" t="n">
         <v>70433.805616</v>
       </c>
-      <c r="FF11">
+      <c r="FF11" t="n">
         <v>47894.750405</v>
       </c>
-      <c r="FG11">
+      <c r="FG11" t="n">
         <v>49976.576973</v>
       </c>
-      <c r="FH11">
+      <c r="FH11" t="n">
         <v>54213.519009</v>
       </c>
-      <c r="FI11">
+      <c r="FI11" t="n">
         <v>71444.644946</v>
       </c>
-      <c r="FJ11">
+      <c r="FJ11" t="n">
         <v>45123.252722</v>
       </c>
-      <c r="FK11" t="s">
-        <v>179</v>
-      </c>
-      <c r="FL11" t="s">
-        <v>179</v>
-      </c>
-      <c r="FM11" t="s">
-        <v>179</v>
+      <c r="FK11" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL11" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM11" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="12" spans="1:169">
-      <c r="A12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BN12">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Support activities to agriculture, forestry and fishing</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr"/>
+      <c r="BJ12" t="inlineStr"/>
+      <c r="BK12" t="inlineStr"/>
+      <c r="BL12" t="inlineStr"/>
+      <c r="BM12" t="inlineStr"/>
+      <c r="BN12" t="n">
         <v>19913.34772</v>
       </c>
-      <c r="BO12">
+      <c r="BO12" t="n">
         <v>24725.12319</v>
       </c>
-      <c r="BP12">
+      <c r="BP12" t="n">
         <v>17311.81637</v>
       </c>
-      <c r="BQ12">
+      <c r="BQ12" t="n">
         <v>22567.75573</v>
       </c>
-      <c r="BR12">
+      <c r="BR12" t="n">
         <v>17721.70098</v>
       </c>
-      <c r="BS12">
+      <c r="BS12" t="n">
         <v>21834.48779</v>
       </c>
-      <c r="BT12">
+      <c r="BT12" t="n">
         <v>15248.74945</v>
       </c>
-      <c r="BU12">
+      <c r="BU12" t="n">
         <v>20190.46701</v>
       </c>
-      <c r="BV12">
+      <c r="BV12" t="n">
         <v>18474.92345</v>
       </c>
-      <c r="BW12">
+      <c r="BW12" t="n">
         <v>23343.72067</v>
       </c>
-      <c r="BX12">
+      <c r="BX12" t="n">
         <v>17204.18215</v>
       </c>
-      <c r="BY12">
+      <c r="BY12" t="n">
         <v>21805.63442</v>
       </c>
-      <c r="BZ12">
+      <c r="BZ12" t="n">
         <v>13422.112072</v>
       </c>
-      <c r="CA12">
+      <c r="CA12" t="n">
         <v>16632.953136</v>
       </c>
-      <c r="CB12">
+      <c r="CB12" t="n">
         <v>12489.008699</v>
       </c>
-      <c r="CC12">
+      <c r="CC12" t="n">
         <v>15578.855295</v>
       </c>
-      <c r="CD12">
+      <c r="CD12" t="n">
         <v>13494.791432</v>
       </c>
-      <c r="CE12">
+      <c r="CE12" t="n">
         <v>16142.788656</v>
       </c>
-      <c r="CF12">
+      <c r="CF12" t="n">
         <v>12858.406975</v>
       </c>
-      <c r="CG12">
+      <c r="CG12" t="n">
         <v>16172.871563</v>
       </c>
-      <c r="CH12">
+      <c r="CH12" t="n">
         <v>13255.254791</v>
       </c>
-      <c r="CI12">
+      <c r="CI12" t="n">
         <v>14967.403359</v>
       </c>
-      <c r="CJ12">
+      <c r="CJ12" t="n">
         <v>14806.765751</v>
       </c>
-      <c r="CK12">
+      <c r="CK12" t="n">
         <v>18308.609182</v>
       </c>
-      <c r="CL12">
+      <c r="CL12" t="n">
         <v>15579.995207</v>
       </c>
-      <c r="CM12">
+      <c r="CM12" t="n">
         <v>17005.425792</v>
       </c>
-      <c r="CN12">
+      <c r="CN12" t="n">
         <v>19353.448681</v>
       </c>
-      <c r="CO12">
+      <c r="CO12" t="n">
         <v>22017.135127</v>
       </c>
-      <c r="CP12">
+      <c r="CP12" t="n">
         <v>17374.776081</v>
       </c>
-      <c r="CQ12">
+      <c r="CQ12" t="n">
         <v>18099.412059</v>
       </c>
-      <c r="CR12">
+      <c r="CR12" t="n">
         <v>20242.436618</v>
       </c>
-      <c r="CS12">
+      <c r="CS12" t="n">
         <v>23250.934794</v>
       </c>
-      <c r="CT12">
+      <c r="CT12" t="n">
         <v>18069.838664</v>
       </c>
-      <c r="CU12">
+      <c r="CU12" t="n">
         <v>19830.707441</v>
       </c>
-      <c r="CV12">
+      <c r="CV12" t="n">
         <v>23151.974529</v>
       </c>
-      <c r="CW12">
+      <c r="CW12" t="n">
         <v>26290.150564</v>
       </c>
-      <c r="CX12">
+      <c r="CX12" t="n">
         <v>20254.562655</v>
       </c>
-      <c r="CY12">
+      <c r="CY12" t="n">
         <v>22866.029852</v>
       </c>
-      <c r="CZ12">
+      <c r="CZ12" t="n">
         <v>24940.438569</v>
       </c>
-      <c r="DA12">
+      <c r="DA12" t="n">
         <v>27840.631233</v>
       </c>
-      <c r="DB12">
+      <c r="DB12" t="n">
         <v>22498.593661</v>
       </c>
-      <c r="DC12">
+      <c r="DC12" t="n">
         <v>25244.643897</v>
       </c>
-      <c r="DD12">
+      <c r="DD12" t="n">
         <v>28326.730806</v>
       </c>
-      <c r="DE12">
+      <c r="DE12" t="n">
         <v>31512.020528</v>
       </c>
-      <c r="DF12">
+      <c r="DF12" t="n">
         <v>25014.486599</v>
       </c>
-      <c r="DG12">
+      <c r="DG12" t="n">
         <v>26811.072416</v>
       </c>
-      <c r="DH12">
+      <c r="DH12" t="n">
         <v>29577.707728</v>
       </c>
-      <c r="DI12">
+      <c r="DI12" t="n">
         <v>31708.16172</v>
       </c>
-      <c r="DJ12">
+      <c r="DJ12" t="n">
         <v>23718.348354</v>
       </c>
-      <c r="DK12">
+      <c r="DK12" t="n">
         <v>25547.415092</v>
       </c>
-      <c r="DL12">
+      <c r="DL12" t="n">
         <v>26662.202945</v>
       </c>
-      <c r="DM12">
+      <c r="DM12" t="n">
         <v>30776.370212</v>
       </c>
-      <c r="DN12">
+      <c r="DN12" t="n">
         <v>23394.83689</v>
       </c>
-      <c r="DO12">
+      <c r="DO12" t="n">
         <v>27251.638667</v>
       </c>
-      <c r="DP12">
+      <c r="DP12" t="n">
         <v>30250.902797</v>
       </c>
-      <c r="DQ12">
+      <c r="DQ12" t="n">
         <v>32716.873425</v>
       </c>
-      <c r="DR12">
+      <c r="DR12" t="n">
         <v>25267.258841</v>
       </c>
-      <c r="DS12">
+      <c r="DS12" t="n">
         <v>30613.819995</v>
       </c>
-      <c r="DT12">
+      <c r="DT12" t="n">
         <v>31797.863775</v>
       </c>
-      <c r="DU12">
+      <c r="DU12" t="n">
         <v>32841.703867</v>
       </c>
-      <c r="DV12">
+      <c r="DV12" t="n">
         <v>25741.205424</v>
       </c>
-      <c r="DW12">
+      <c r="DW12" t="n">
         <v>30610.543636</v>
       </c>
-      <c r="DX12">
+      <c r="DX12" t="n">
         <v>32478.919334</v>
       </c>
-      <c r="DY12">
+      <c r="DY12" t="n">
         <v>34407.562989</v>
       </c>
-      <c r="DZ12">
+      <c r="DZ12" t="n">
         <v>27668.117804</v>
       </c>
-      <c r="EA12">
+      <c r="EA12" t="n">
         <v>32192.453352</v>
       </c>
-      <c r="EB12">
+      <c r="EB12" t="n">
         <v>34625.256082</v>
       </c>
-      <c r="EC12">
+      <c r="EC12" t="n">
         <v>36502.062435</v>
       </c>
-      <c r="ED12">
+      <c r="ED12" t="n">
         <v>28648.454781</v>
       </c>
-      <c r="EE12">
+      <c r="EE12" t="n">
         <v>33331.797476</v>
       </c>
-      <c r="EF12">
+      <c r="EF12" t="n">
         <v>37842.626302</v>
       </c>
-      <c r="EG12">
+      <c r="EG12" t="n">
         <v>37472.831446</v>
       </c>
-      <c r="EH12">
+      <c r="EH12" t="n">
         <v>28737.354871</v>
       </c>
-      <c r="EI12">
+      <c r="EI12" t="n">
         <v>34243.584528</v>
       </c>
-      <c r="EJ12">
+      <c r="EJ12" t="n">
         <v>39982.013848</v>
       </c>
-      <c r="EK12">
+      <c r="EK12" t="n">
         <v>41800.521799</v>
       </c>
-      <c r="EL12">
+      <c r="EL12" t="n">
         <v>29117.0553</v>
       </c>
-      <c r="EM12">
+      <c r="EM12" t="n">
         <v>36262.341099</v>
       </c>
-      <c r="EN12">
+      <c r="EN12" t="n">
         <v>41225.917573</v>
       </c>
-      <c r="EO12">
+      <c r="EO12" t="n">
         <v>42384.774868</v>
       </c>
-      <c r="EP12">
+      <c r="EP12" t="n">
         <v>30615.073402</v>
       </c>
-      <c r="EQ12">
+      <c r="EQ12" t="n">
         <v>38111.184595</v>
       </c>
-      <c r="ER12">
+      <c r="ER12" t="n">
         <v>42866.603716</v>
       </c>
-      <c r="ES12">
+      <c r="ES12" t="n">
         <v>44420.607726</v>
       </c>
-      <c r="ET12">
+      <c r="ET12" t="n">
         <v>31929.03184</v>
       </c>
-      <c r="EU12">
+      <c r="EU12" t="n">
         <v>39299.952685</v>
       </c>
-      <c r="EV12">
+      <c r="EV12" t="n">
         <v>44895.922467</v>
       </c>
-      <c r="EW12">
+      <c r="EW12" t="n">
         <v>45153.364718</v>
       </c>
-      <c r="EX12">
+      <c r="EX12" t="n">
         <v>32790.740397</v>
       </c>
-      <c r="EY12">
+      <c r="EY12" t="n">
         <v>43252.360678</v>
       </c>
-      <c r="EZ12">
+      <c r="EZ12" t="n">
         <v>46690.910171</v>
       </c>
-      <c r="FA12">
+      <c r="FA12" t="n">
         <v>47849.185221</v>
       </c>
-      <c r="FB12">
+      <c r="FB12" t="n">
         <v>34715.597439</v>
       </c>
-      <c r="FC12">
+      <c r="FC12" t="n">
         <v>46634.357541</v>
       </c>
-      <c r="FD12">
+      <c r="FD12" t="n">
         <v>47946.828437</v>
       </c>
-      <c r="FE12">
+      <c r="FE12" t="n">
         <v>49825.86263</v>
       </c>
-      <c r="FF12">
+      <c r="FF12" t="n">
         <v>37458.390699</v>
       </c>
-      <c r="FG12">
+      <c r="FG12" t="n">
         <v>49208.61416</v>
       </c>
-      <c r="FH12">
+      <c r="FH12" t="n">
         <v>50427.537158</v>
       </c>
-      <c r="FI12">
+      <c r="FI12" t="n">
         <v>53842.114921</v>
       </c>
-      <c r="FJ12">
+      <c r="FJ12" t="n">
         <v>38875.781909</v>
       </c>
-      <c r="FK12" t="s">
-        <v>179</v>
-      </c>
-      <c r="FL12" t="s">
-        <v>179</v>
-      </c>
-      <c r="FM12" t="s">
-        <v>179</v>
+      <c r="FK12" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL12" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM12" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>